--- a/etris_data_prodcuts_table.xlsx
+++ b/etris_data_prodcuts_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Postdoc UniNa\TSUNAMI RISK SERVICE FOR EPOS\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FD6455-6A70-4041-B030-3B27B9E7723A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC9D93F-273F-47AB-9D3D-AA520F87FBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{BE6ED569-74C1-403B-A9B0-A09F9278D048}"/>
   </bookViews>
@@ -573,7 +573,7 @@
     <t xml:space="preserve">The fragility curves in ETRIS are all re-derived based on in-house workflows and open-access raw data and they should be referred to based on the DOI listed in column "L". This column shows the reference to the original literature. </t>
   </si>
   <si>
-    <t>using "logit",  "probit" and "cloglog" link function</t>
+    <t>using "logit",  "probit" and "cloglog" link functions</t>
   </si>
   <si>
     <t>Suppasri, A., Mas, E., Charvet, I., Gunasekera, R., Imai, K., Fukutani, Y., Abe, Y. and Imamura, F., 2013. Building damage characteristics based on surveyed data and fragility curves of the 2011 Great East Japan tsunami. Natural Hazards, 66(2), pp.319-341.</t>
@@ -603,7 +603,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,6 +672,23 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -715,7 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -739,7 +756,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -783,6 +799,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1102,32 +1122,32 @@
   <dimension ref="A1:DJ73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="56" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="126.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="50.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.5546875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="44.6640625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="59.77734375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="253.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="102" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="188.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="216.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="46.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="25" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1196,7 @@
       <c r="P1" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="Q1" s="6"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
@@ -1194,16 +1214,10 @@
       <c r="E2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
       <c r="H2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="8" t="s">
@@ -1245,12 +1259,6 @@
       <c r="E3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
       <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
@@ -1296,12 +1304,6 @@
       <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
       <c r="H4" s="8" t="s">
         <v>17</v>
       </c>
@@ -1347,12 +1349,6 @@
       <c r="E5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
       <c r="H5" s="8" t="s">
         <v>17</v>
       </c>
@@ -1386,12 +1382,6 @@
       <c r="E6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
       <c r="H6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1437,12 +1427,6 @@
       <c r="E7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
       <c r="H7" s="8" t="s">
         <v>17</v>
       </c>
@@ -1488,12 +1472,6 @@
       <c r="E8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
       <c r="H8" s="8" t="s">
         <v>17</v>
       </c>
@@ -1539,12 +1517,6 @@
       <c r="E9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
       <c r="H9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1590,12 +1562,6 @@
       <c r="E10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
       <c r="H10" s="8" t="s">
         <v>17</v>
       </c>
@@ -1641,12 +1607,6 @@
       <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
       <c r="H11" s="8" t="s">
         <v>17</v>
       </c>
@@ -1692,12 +1652,6 @@
       <c r="E12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
       <c r="H12" s="8" t="s">
         <v>17</v>
       </c>
@@ -1731,12 +1685,6 @@
       <c r="E13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
       <c r="H13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1770,12 +1718,6 @@
       <c r="E14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
       <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
@@ -1809,12 +1751,6 @@
       <c r="E15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
       <c r="H15" s="8" t="s">
         <v>17</v>
       </c>
@@ -1848,12 +1784,6 @@
       <c r="E16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
       <c r="H16" s="8" t="s">
         <v>17</v>
       </c>
@@ -1887,12 +1817,6 @@
       <c r="E17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
       <c r="H17" s="8" t="s">
         <v>17</v>
       </c>
@@ -1923,12 +1847,6 @@
       <c r="E18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
       <c r="H18" s="8" t="s">
         <v>17</v>
       </c>
@@ -1946,85 +1864,81 @@
       </c>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:114" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+    <row r="19" spans="1:114" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="10">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
       <c r="P19" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="Q19" s="11"/>
+      <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="13"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="2" t="s">
         <v>119</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="M20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
       <c r="P20" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Q20" s="15"/>
+      <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
@@ -2039,7 +1953,7 @@
       <c r="E21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -2059,44 +1973,44 @@
       </c>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:114" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+    <row r="22" spans="1:114" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="16" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="10"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
       <c r="P22" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="Q22" s="11"/>
+      <c r="Q22" s="10"/>
     </row>
     <row r="23" spans="1:114" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
@@ -2120,7 +2034,7 @@
       <c r="G23" s="8">
         <v>119.86592876875</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="8" t="s">
@@ -2171,7 +2085,7 @@
       <c r="G24" s="8">
         <v>119.86592876875</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I24" s="8" t="s">
@@ -2222,7 +2136,7 @@
       <c r="G25" s="8">
         <v>119.86592876875</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I25" s="8" t="s">
@@ -2273,7 +2187,7 @@
       <c r="G26" s="8">
         <v>119.86070662352947</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I26" s="8" t="s">
@@ -2324,7 +2238,7 @@
       <c r="G27" s="8">
         <v>119.86070662352947</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="8" t="s">
@@ -2375,7 +2289,7 @@
       <c r="G28" s="8">
         <v>119.86070662352947</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I28" s="8" t="s">
@@ -2426,7 +2340,7 @@
       <c r="G29" s="8">
         <v>119.86030693235301</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I29" s="8" t="s">
@@ -2477,7 +2391,7 @@
       <c r="G30" s="8">
         <v>119.86030693235301</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I30" s="8" t="s">
@@ -2528,7 +2442,7 @@
       <c r="G31" s="8">
         <v>119.86030693235301</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I31" s="8" t="s">
@@ -2579,7 +2493,7 @@
       <c r="G32" s="8">
         <v>119.84787273286717</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I32" s="8" t="s">
@@ -2597,104 +2511,104 @@
       <c r="P32" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-      <c r="AN32" s="17"/>
-      <c r="AO32" s="17"/>
-      <c r="AP32" s="17"/>
-      <c r="AQ32" s="17"/>
-      <c r="AR32" s="17"/>
-      <c r="AS32" s="17"/>
-      <c r="AT32" s="17"/>
-      <c r="AU32" s="17"/>
-      <c r="AV32" s="17"/>
-      <c r="AW32" s="17"/>
-      <c r="AX32" s="17"/>
-      <c r="AY32" s="17"/>
-      <c r="AZ32" s="17"/>
-      <c r="BA32" s="17"/>
-      <c r="BB32" s="17"/>
-      <c r="BC32" s="17"/>
-      <c r="BD32" s="17"/>
-      <c r="BE32" s="17"/>
-      <c r="BF32" s="17"/>
-      <c r="BG32" s="17"/>
-      <c r="BH32" s="17"/>
-      <c r="BI32" s="17"/>
-      <c r="BJ32" s="17"/>
-      <c r="BK32" s="17"/>
-      <c r="BL32" s="17"/>
-      <c r="BM32" s="17"/>
-      <c r="BN32" s="17"/>
-      <c r="BO32" s="17"/>
-      <c r="BP32" s="17"/>
-      <c r="BQ32" s="17"/>
-      <c r="BR32" s="17"/>
-      <c r="BS32" s="17"/>
-      <c r="BT32" s="17"/>
-      <c r="BU32" s="17"/>
-      <c r="BV32" s="17"/>
-      <c r="BW32" s="17"/>
-      <c r="BX32" s="17"/>
-      <c r="BY32" s="17"/>
-      <c r="BZ32" s="17"/>
-      <c r="CA32" s="17"/>
-      <c r="CB32" s="17"/>
-      <c r="CC32" s="17"/>
-      <c r="CD32" s="17"/>
-      <c r="CE32" s="17"/>
-      <c r="CF32" s="17"/>
-      <c r="CG32" s="17"/>
-      <c r="CH32" s="17"/>
-      <c r="CI32" s="17"/>
-      <c r="CJ32" s="17"/>
-      <c r="CK32" s="17"/>
-      <c r="CL32" s="17"/>
-      <c r="CM32" s="17"/>
-      <c r="CN32" s="17"/>
-      <c r="CO32" s="17"/>
-      <c r="CP32" s="17"/>
-      <c r="CQ32" s="17"/>
-      <c r="CR32" s="17"/>
-      <c r="CS32" s="17"/>
-      <c r="CT32" s="17"/>
-      <c r="CU32" s="17"/>
-      <c r="CV32" s="17"/>
-      <c r="CW32" s="17"/>
-      <c r="CX32" s="17"/>
-      <c r="CY32" s="17"/>
-      <c r="CZ32" s="17"/>
-      <c r="DA32" s="17"/>
-      <c r="DB32" s="17"/>
-      <c r="DC32" s="17"/>
-      <c r="DD32" s="17"/>
-      <c r="DE32" s="17"/>
-      <c r="DF32" s="17"/>
-      <c r="DG32" s="17"/>
-      <c r="DH32" s="17"/>
-      <c r="DI32" s="17"/>
-      <c r="DJ32" s="17"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="16"/>
+      <c r="AM32" s="16"/>
+      <c r="AN32" s="16"/>
+      <c r="AO32" s="16"/>
+      <c r="AP32" s="16"/>
+      <c r="AQ32" s="16"/>
+      <c r="AR32" s="16"/>
+      <c r="AS32" s="16"/>
+      <c r="AT32" s="16"/>
+      <c r="AU32" s="16"/>
+      <c r="AV32" s="16"/>
+      <c r="AW32" s="16"/>
+      <c r="AX32" s="16"/>
+      <c r="AY32" s="16"/>
+      <c r="AZ32" s="16"/>
+      <c r="BA32" s="16"/>
+      <c r="BB32" s="16"/>
+      <c r="BC32" s="16"/>
+      <c r="BD32" s="16"/>
+      <c r="BE32" s="16"/>
+      <c r="BF32" s="16"/>
+      <c r="BG32" s="16"/>
+      <c r="BH32" s="16"/>
+      <c r="BI32" s="16"/>
+      <c r="BJ32" s="16"/>
+      <c r="BK32" s="16"/>
+      <c r="BL32" s="16"/>
+      <c r="BM32" s="16"/>
+      <c r="BN32" s="16"/>
+      <c r="BO32" s="16"/>
+      <c r="BP32" s="16"/>
+      <c r="BQ32" s="16"/>
+      <c r="BR32" s="16"/>
+      <c r="BS32" s="16"/>
+      <c r="BT32" s="16"/>
+      <c r="BU32" s="16"/>
+      <c r="BV32" s="16"/>
+      <c r="BW32" s="16"/>
+      <c r="BX32" s="16"/>
+      <c r="BY32" s="16"/>
+      <c r="BZ32" s="16"/>
+      <c r="CA32" s="16"/>
+      <c r="CB32" s="16"/>
+      <c r="CC32" s="16"/>
+      <c r="CD32" s="16"/>
+      <c r="CE32" s="16"/>
+      <c r="CF32" s="16"/>
+      <c r="CG32" s="16"/>
+      <c r="CH32" s="16"/>
+      <c r="CI32" s="16"/>
+      <c r="CJ32" s="16"/>
+      <c r="CK32" s="16"/>
+      <c r="CL32" s="16"/>
+      <c r="CM32" s="16"/>
+      <c r="CN32" s="16"/>
+      <c r="CO32" s="16"/>
+      <c r="CP32" s="16"/>
+      <c r="CQ32" s="16"/>
+      <c r="CR32" s="16"/>
+      <c r="CS32" s="16"/>
+      <c r="CT32" s="16"/>
+      <c r="CU32" s="16"/>
+      <c r="CV32" s="16"/>
+      <c r="CW32" s="16"/>
+      <c r="CX32" s="16"/>
+      <c r="CY32" s="16"/>
+      <c r="CZ32" s="16"/>
+      <c r="DA32" s="16"/>
+      <c r="DB32" s="16"/>
+      <c r="DC32" s="16"/>
+      <c r="DD32" s="16"/>
+      <c r="DE32" s="16"/>
+      <c r="DF32" s="16"/>
+      <c r="DG32" s="16"/>
+      <c r="DH32" s="16"/>
+      <c r="DI32" s="16"/>
+      <c r="DJ32" s="16"/>
     </row>
     <row r="33" spans="1:114" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
@@ -2712,13 +2626,13 @@
       <c r="E33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="17">
         <v>-0.88282969284615398</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="17">
         <v>119.84857013076922</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I33" s="8" t="s">
@@ -2745,104 +2659,104 @@
       <c r="P33" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="17"/>
-      <c r="AN33" s="17"/>
-      <c r="AO33" s="17"/>
-      <c r="AP33" s="17"/>
-      <c r="AQ33" s="17"/>
-      <c r="AR33" s="17"/>
-      <c r="AS33" s="17"/>
-      <c r="AT33" s="17"/>
-      <c r="AU33" s="17"/>
-      <c r="AV33" s="17"/>
-      <c r="AW33" s="17"/>
-      <c r="AX33" s="17"/>
-      <c r="AY33" s="17"/>
-      <c r="AZ33" s="17"/>
-      <c r="BA33" s="17"/>
-      <c r="BB33" s="17"/>
-      <c r="BC33" s="17"/>
-      <c r="BD33" s="17"/>
-      <c r="BE33" s="17"/>
-      <c r="BF33" s="17"/>
-      <c r="BG33" s="17"/>
-      <c r="BH33" s="17"/>
-      <c r="BI33" s="17"/>
-      <c r="BJ33" s="17"/>
-      <c r="BK33" s="17"/>
-      <c r="BL33" s="17"/>
-      <c r="BM33" s="17"/>
-      <c r="BN33" s="17"/>
-      <c r="BO33" s="17"/>
-      <c r="BP33" s="17"/>
-      <c r="BQ33" s="17"/>
-      <c r="BR33" s="17"/>
-      <c r="BS33" s="17"/>
-      <c r="BT33" s="17"/>
-      <c r="BU33" s="17"/>
-      <c r="BV33" s="17"/>
-      <c r="BW33" s="17"/>
-      <c r="BX33" s="17"/>
-      <c r="BY33" s="17"/>
-      <c r="BZ33" s="17"/>
-      <c r="CA33" s="17"/>
-      <c r="CB33" s="17"/>
-      <c r="CC33" s="17"/>
-      <c r="CD33" s="17"/>
-      <c r="CE33" s="17"/>
-      <c r="CF33" s="17"/>
-      <c r="CG33" s="17"/>
-      <c r="CH33" s="17"/>
-      <c r="CI33" s="17"/>
-      <c r="CJ33" s="17"/>
-      <c r="CK33" s="17"/>
-      <c r="CL33" s="17"/>
-      <c r="CM33" s="17"/>
-      <c r="CN33" s="17"/>
-      <c r="CO33" s="17"/>
-      <c r="CP33" s="17"/>
-      <c r="CQ33" s="17"/>
-      <c r="CR33" s="17"/>
-      <c r="CS33" s="17"/>
-      <c r="CT33" s="17"/>
-      <c r="CU33" s="17"/>
-      <c r="CV33" s="17"/>
-      <c r="CW33" s="17"/>
-      <c r="CX33" s="17"/>
-      <c r="CY33" s="17"/>
-      <c r="CZ33" s="17"/>
-      <c r="DA33" s="17"/>
-      <c r="DB33" s="17"/>
-      <c r="DC33" s="17"/>
-      <c r="DD33" s="17"/>
-      <c r="DE33" s="17"/>
-      <c r="DF33" s="17"/>
-      <c r="DG33" s="17"/>
-      <c r="DH33" s="17"/>
-      <c r="DI33" s="17"/>
-      <c r="DJ33" s="17"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="16"/>
+      <c r="AO33" s="16"/>
+      <c r="AP33" s="16"/>
+      <c r="AQ33" s="16"/>
+      <c r="AR33" s="16"/>
+      <c r="AS33" s="16"/>
+      <c r="AT33" s="16"/>
+      <c r="AU33" s="16"/>
+      <c r="AV33" s="16"/>
+      <c r="AW33" s="16"/>
+      <c r="AX33" s="16"/>
+      <c r="AY33" s="16"/>
+      <c r="AZ33" s="16"/>
+      <c r="BA33" s="16"/>
+      <c r="BB33" s="16"/>
+      <c r="BC33" s="16"/>
+      <c r="BD33" s="16"/>
+      <c r="BE33" s="16"/>
+      <c r="BF33" s="16"/>
+      <c r="BG33" s="16"/>
+      <c r="BH33" s="16"/>
+      <c r="BI33" s="16"/>
+      <c r="BJ33" s="16"/>
+      <c r="BK33" s="16"/>
+      <c r="BL33" s="16"/>
+      <c r="BM33" s="16"/>
+      <c r="BN33" s="16"/>
+      <c r="BO33" s="16"/>
+      <c r="BP33" s="16"/>
+      <c r="BQ33" s="16"/>
+      <c r="BR33" s="16"/>
+      <c r="BS33" s="16"/>
+      <c r="BT33" s="16"/>
+      <c r="BU33" s="16"/>
+      <c r="BV33" s="16"/>
+      <c r="BW33" s="16"/>
+      <c r="BX33" s="16"/>
+      <c r="BY33" s="16"/>
+      <c r="BZ33" s="16"/>
+      <c r="CA33" s="16"/>
+      <c r="CB33" s="16"/>
+      <c r="CC33" s="16"/>
+      <c r="CD33" s="16"/>
+      <c r="CE33" s="16"/>
+      <c r="CF33" s="16"/>
+      <c r="CG33" s="16"/>
+      <c r="CH33" s="16"/>
+      <c r="CI33" s="16"/>
+      <c r="CJ33" s="16"/>
+      <c r="CK33" s="16"/>
+      <c r="CL33" s="16"/>
+      <c r="CM33" s="16"/>
+      <c r="CN33" s="16"/>
+      <c r="CO33" s="16"/>
+      <c r="CP33" s="16"/>
+      <c r="CQ33" s="16"/>
+      <c r="CR33" s="16"/>
+      <c r="CS33" s="16"/>
+      <c r="CT33" s="16"/>
+      <c r="CU33" s="16"/>
+      <c r="CV33" s="16"/>
+      <c r="CW33" s="16"/>
+      <c r="CX33" s="16"/>
+      <c r="CY33" s="16"/>
+      <c r="CZ33" s="16"/>
+      <c r="DA33" s="16"/>
+      <c r="DB33" s="16"/>
+      <c r="DC33" s="16"/>
+      <c r="DD33" s="16"/>
+      <c r="DE33" s="16"/>
+      <c r="DF33" s="16"/>
+      <c r="DG33" s="16"/>
+      <c r="DH33" s="16"/>
+      <c r="DI33" s="16"/>
+      <c r="DJ33" s="16"/>
     </row>
     <row r="34" spans="1:114" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
@@ -2860,13 +2774,13 @@
       <c r="E34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="17">
         <v>-0.88282969284615398</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="17">
         <v>119.84857013076922</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I34" s="8" t="s">
@@ -2893,104 +2807,104 @@
       <c r="P34" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="17"/>
-      <c r="AN34" s="17"/>
-      <c r="AO34" s="17"/>
-      <c r="AP34" s="17"/>
-      <c r="AQ34" s="17"/>
-      <c r="AR34" s="17"/>
-      <c r="AS34" s="17"/>
-      <c r="AT34" s="17"/>
-      <c r="AU34" s="17"/>
-      <c r="AV34" s="17"/>
-      <c r="AW34" s="17"/>
-      <c r="AX34" s="17"/>
-      <c r="AY34" s="17"/>
-      <c r="AZ34" s="17"/>
-      <c r="BA34" s="17"/>
-      <c r="BB34" s="17"/>
-      <c r="BC34" s="17"/>
-      <c r="BD34" s="17"/>
-      <c r="BE34" s="17"/>
-      <c r="BF34" s="17"/>
-      <c r="BG34" s="17"/>
-      <c r="BH34" s="17"/>
-      <c r="BI34" s="17"/>
-      <c r="BJ34" s="17"/>
-      <c r="BK34" s="17"/>
-      <c r="BL34" s="17"/>
-      <c r="BM34" s="17"/>
-      <c r="BN34" s="17"/>
-      <c r="BO34" s="17"/>
-      <c r="BP34" s="17"/>
-      <c r="BQ34" s="17"/>
-      <c r="BR34" s="17"/>
-      <c r="BS34" s="17"/>
-      <c r="BT34" s="17"/>
-      <c r="BU34" s="17"/>
-      <c r="BV34" s="17"/>
-      <c r="BW34" s="17"/>
-      <c r="BX34" s="17"/>
-      <c r="BY34" s="17"/>
-      <c r="BZ34" s="17"/>
-      <c r="CA34" s="17"/>
-      <c r="CB34" s="17"/>
-      <c r="CC34" s="17"/>
-      <c r="CD34" s="17"/>
-      <c r="CE34" s="17"/>
-      <c r="CF34" s="17"/>
-      <c r="CG34" s="17"/>
-      <c r="CH34" s="17"/>
-      <c r="CI34" s="17"/>
-      <c r="CJ34" s="17"/>
-      <c r="CK34" s="17"/>
-      <c r="CL34" s="17"/>
-      <c r="CM34" s="17"/>
-      <c r="CN34" s="17"/>
-      <c r="CO34" s="17"/>
-      <c r="CP34" s="17"/>
-      <c r="CQ34" s="17"/>
-      <c r="CR34" s="17"/>
-      <c r="CS34" s="17"/>
-      <c r="CT34" s="17"/>
-      <c r="CU34" s="17"/>
-      <c r="CV34" s="17"/>
-      <c r="CW34" s="17"/>
-      <c r="CX34" s="17"/>
-      <c r="CY34" s="17"/>
-      <c r="CZ34" s="17"/>
-      <c r="DA34" s="17"/>
-      <c r="DB34" s="17"/>
-      <c r="DC34" s="17"/>
-      <c r="DD34" s="17"/>
-      <c r="DE34" s="17"/>
-      <c r="DF34" s="17"/>
-      <c r="DG34" s="17"/>
-      <c r="DH34" s="17"/>
-      <c r="DI34" s="17"/>
-      <c r="DJ34" s="17"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16"/>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="16"/>
+      <c r="AM34" s="16"/>
+      <c r="AN34" s="16"/>
+      <c r="AO34" s="16"/>
+      <c r="AP34" s="16"/>
+      <c r="AQ34" s="16"/>
+      <c r="AR34" s="16"/>
+      <c r="AS34" s="16"/>
+      <c r="AT34" s="16"/>
+      <c r="AU34" s="16"/>
+      <c r="AV34" s="16"/>
+      <c r="AW34" s="16"/>
+      <c r="AX34" s="16"/>
+      <c r="AY34" s="16"/>
+      <c r="AZ34" s="16"/>
+      <c r="BA34" s="16"/>
+      <c r="BB34" s="16"/>
+      <c r="BC34" s="16"/>
+      <c r="BD34" s="16"/>
+      <c r="BE34" s="16"/>
+      <c r="BF34" s="16"/>
+      <c r="BG34" s="16"/>
+      <c r="BH34" s="16"/>
+      <c r="BI34" s="16"/>
+      <c r="BJ34" s="16"/>
+      <c r="BK34" s="16"/>
+      <c r="BL34" s="16"/>
+      <c r="BM34" s="16"/>
+      <c r="BN34" s="16"/>
+      <c r="BO34" s="16"/>
+      <c r="BP34" s="16"/>
+      <c r="BQ34" s="16"/>
+      <c r="BR34" s="16"/>
+      <c r="BS34" s="16"/>
+      <c r="BT34" s="16"/>
+      <c r="BU34" s="16"/>
+      <c r="BV34" s="16"/>
+      <c r="BW34" s="16"/>
+      <c r="BX34" s="16"/>
+      <c r="BY34" s="16"/>
+      <c r="BZ34" s="16"/>
+      <c r="CA34" s="16"/>
+      <c r="CB34" s="16"/>
+      <c r="CC34" s="16"/>
+      <c r="CD34" s="16"/>
+      <c r="CE34" s="16"/>
+      <c r="CF34" s="16"/>
+      <c r="CG34" s="16"/>
+      <c r="CH34" s="16"/>
+      <c r="CI34" s="16"/>
+      <c r="CJ34" s="16"/>
+      <c r="CK34" s="16"/>
+      <c r="CL34" s="16"/>
+      <c r="CM34" s="16"/>
+      <c r="CN34" s="16"/>
+      <c r="CO34" s="16"/>
+      <c r="CP34" s="16"/>
+      <c r="CQ34" s="16"/>
+      <c r="CR34" s="16"/>
+      <c r="CS34" s="16"/>
+      <c r="CT34" s="16"/>
+      <c r="CU34" s="16"/>
+      <c r="CV34" s="16"/>
+      <c r="CW34" s="16"/>
+      <c r="CX34" s="16"/>
+      <c r="CY34" s="16"/>
+      <c r="CZ34" s="16"/>
+      <c r="DA34" s="16"/>
+      <c r="DB34" s="16"/>
+      <c r="DC34" s="16"/>
+      <c r="DD34" s="16"/>
+      <c r="DE34" s="16"/>
+      <c r="DF34" s="16"/>
+      <c r="DG34" s="16"/>
+      <c r="DH34" s="16"/>
+      <c r="DI34" s="16"/>
+      <c r="DJ34" s="16"/>
     </row>
     <row r="35" spans="1:114" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
@@ -3008,13 +2922,13 @@
       <c r="E35" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="17">
         <v>-0.88282969284615398</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="17">
         <v>119.84857013076922</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I35" s="8" t="s">
@@ -3041,104 +2955,104 @@
       <c r="P35" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
-      <c r="AG35" s="17"/>
-      <c r="AH35" s="17"/>
-      <c r="AI35" s="17"/>
-      <c r="AJ35" s="17"/>
-      <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
-      <c r="AM35" s="17"/>
-      <c r="AN35" s="17"/>
-      <c r="AO35" s="17"/>
-      <c r="AP35" s="17"/>
-      <c r="AQ35" s="17"/>
-      <c r="AR35" s="17"/>
-      <c r="AS35" s="17"/>
-      <c r="AT35" s="17"/>
-      <c r="AU35" s="17"/>
-      <c r="AV35" s="17"/>
-      <c r="AW35" s="17"/>
-      <c r="AX35" s="17"/>
-      <c r="AY35" s="17"/>
-      <c r="AZ35" s="17"/>
-      <c r="BA35" s="17"/>
-      <c r="BB35" s="17"/>
-      <c r="BC35" s="17"/>
-      <c r="BD35" s="17"/>
-      <c r="BE35" s="17"/>
-      <c r="BF35" s="17"/>
-      <c r="BG35" s="17"/>
-      <c r="BH35" s="17"/>
-      <c r="BI35" s="17"/>
-      <c r="BJ35" s="17"/>
-      <c r="BK35" s="17"/>
-      <c r="BL35" s="17"/>
-      <c r="BM35" s="17"/>
-      <c r="BN35" s="17"/>
-      <c r="BO35" s="17"/>
-      <c r="BP35" s="17"/>
-      <c r="BQ35" s="17"/>
-      <c r="BR35" s="17"/>
-      <c r="BS35" s="17"/>
-      <c r="BT35" s="17"/>
-      <c r="BU35" s="17"/>
-      <c r="BV35" s="17"/>
-      <c r="BW35" s="17"/>
-      <c r="BX35" s="17"/>
-      <c r="BY35" s="17"/>
-      <c r="BZ35" s="17"/>
-      <c r="CA35" s="17"/>
-      <c r="CB35" s="17"/>
-      <c r="CC35" s="17"/>
-      <c r="CD35" s="17"/>
-      <c r="CE35" s="17"/>
-      <c r="CF35" s="17"/>
-      <c r="CG35" s="17"/>
-      <c r="CH35" s="17"/>
-      <c r="CI35" s="17"/>
-      <c r="CJ35" s="17"/>
-      <c r="CK35" s="17"/>
-      <c r="CL35" s="17"/>
-      <c r="CM35" s="17"/>
-      <c r="CN35" s="17"/>
-      <c r="CO35" s="17"/>
-      <c r="CP35" s="17"/>
-      <c r="CQ35" s="17"/>
-      <c r="CR35" s="17"/>
-      <c r="CS35" s="17"/>
-      <c r="CT35" s="17"/>
-      <c r="CU35" s="17"/>
-      <c r="CV35" s="17"/>
-      <c r="CW35" s="17"/>
-      <c r="CX35" s="17"/>
-      <c r="CY35" s="17"/>
-      <c r="CZ35" s="17"/>
-      <c r="DA35" s="17"/>
-      <c r="DB35" s="17"/>
-      <c r="DC35" s="17"/>
-      <c r="DD35" s="17"/>
-      <c r="DE35" s="17"/>
-      <c r="DF35" s="17"/>
-      <c r="DG35" s="17"/>
-      <c r="DH35" s="17"/>
-      <c r="DI35" s="17"/>
-      <c r="DJ35" s="17"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16"/>
+      <c r="AL35" s="16"/>
+      <c r="AM35" s="16"/>
+      <c r="AN35" s="16"/>
+      <c r="AO35" s="16"/>
+      <c r="AP35" s="16"/>
+      <c r="AQ35" s="16"/>
+      <c r="AR35" s="16"/>
+      <c r="AS35" s="16"/>
+      <c r="AT35" s="16"/>
+      <c r="AU35" s="16"/>
+      <c r="AV35" s="16"/>
+      <c r="AW35" s="16"/>
+      <c r="AX35" s="16"/>
+      <c r="AY35" s="16"/>
+      <c r="AZ35" s="16"/>
+      <c r="BA35" s="16"/>
+      <c r="BB35" s="16"/>
+      <c r="BC35" s="16"/>
+      <c r="BD35" s="16"/>
+      <c r="BE35" s="16"/>
+      <c r="BF35" s="16"/>
+      <c r="BG35" s="16"/>
+      <c r="BH35" s="16"/>
+      <c r="BI35" s="16"/>
+      <c r="BJ35" s="16"/>
+      <c r="BK35" s="16"/>
+      <c r="BL35" s="16"/>
+      <c r="BM35" s="16"/>
+      <c r="BN35" s="16"/>
+      <c r="BO35" s="16"/>
+      <c r="BP35" s="16"/>
+      <c r="BQ35" s="16"/>
+      <c r="BR35" s="16"/>
+      <c r="BS35" s="16"/>
+      <c r="BT35" s="16"/>
+      <c r="BU35" s="16"/>
+      <c r="BV35" s="16"/>
+      <c r="BW35" s="16"/>
+      <c r="BX35" s="16"/>
+      <c r="BY35" s="16"/>
+      <c r="BZ35" s="16"/>
+      <c r="CA35" s="16"/>
+      <c r="CB35" s="16"/>
+      <c r="CC35" s="16"/>
+      <c r="CD35" s="16"/>
+      <c r="CE35" s="16"/>
+      <c r="CF35" s="16"/>
+      <c r="CG35" s="16"/>
+      <c r="CH35" s="16"/>
+      <c r="CI35" s="16"/>
+      <c r="CJ35" s="16"/>
+      <c r="CK35" s="16"/>
+      <c r="CL35" s="16"/>
+      <c r="CM35" s="16"/>
+      <c r="CN35" s="16"/>
+      <c r="CO35" s="16"/>
+      <c r="CP35" s="16"/>
+      <c r="CQ35" s="16"/>
+      <c r="CR35" s="16"/>
+      <c r="CS35" s="16"/>
+      <c r="CT35" s="16"/>
+      <c r="CU35" s="16"/>
+      <c r="CV35" s="16"/>
+      <c r="CW35" s="16"/>
+      <c r="CX35" s="16"/>
+      <c r="CY35" s="16"/>
+      <c r="CZ35" s="16"/>
+      <c r="DA35" s="16"/>
+      <c r="DB35" s="16"/>
+      <c r="DC35" s="16"/>
+      <c r="DD35" s="16"/>
+      <c r="DE35" s="16"/>
+      <c r="DF35" s="16"/>
+      <c r="DG35" s="16"/>
+      <c r="DH35" s="16"/>
+      <c r="DI35" s="16"/>
+      <c r="DJ35" s="16"/>
     </row>
     <row r="36" spans="1:114" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
@@ -3162,7 +3076,7 @@
       <c r="G36" s="8">
         <v>119.8553508</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I36" s="8" t="s">
@@ -3180,104 +3094,104 @@
       <c r="P36" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="17"/>
-      <c r="AF36" s="17"/>
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="17"/>
-      <c r="AI36" s="17"/>
-      <c r="AJ36" s="17"/>
-      <c r="AK36" s="17"/>
-      <c r="AL36" s="17"/>
-      <c r="AM36" s="17"/>
-      <c r="AN36" s="17"/>
-      <c r="AO36" s="17"/>
-      <c r="AP36" s="17"/>
-      <c r="AQ36" s="17"/>
-      <c r="AR36" s="17"/>
-      <c r="AS36" s="17"/>
-      <c r="AT36" s="17"/>
-      <c r="AU36" s="17"/>
-      <c r="AV36" s="17"/>
-      <c r="AW36" s="17"/>
-      <c r="AX36" s="17"/>
-      <c r="AY36" s="17"/>
-      <c r="AZ36" s="17"/>
-      <c r="BA36" s="17"/>
-      <c r="BB36" s="17"/>
-      <c r="BC36" s="17"/>
-      <c r="BD36" s="17"/>
-      <c r="BE36" s="17"/>
-      <c r="BF36" s="17"/>
-      <c r="BG36" s="17"/>
-      <c r="BH36" s="17"/>
-      <c r="BI36" s="17"/>
-      <c r="BJ36" s="17"/>
-      <c r="BK36" s="17"/>
-      <c r="BL36" s="17"/>
-      <c r="BM36" s="17"/>
-      <c r="BN36" s="17"/>
-      <c r="BO36" s="17"/>
-      <c r="BP36" s="17"/>
-      <c r="BQ36" s="17"/>
-      <c r="BR36" s="17"/>
-      <c r="BS36" s="17"/>
-      <c r="BT36" s="17"/>
-      <c r="BU36" s="17"/>
-      <c r="BV36" s="17"/>
-      <c r="BW36" s="17"/>
-      <c r="BX36" s="17"/>
-      <c r="BY36" s="17"/>
-      <c r="BZ36" s="17"/>
-      <c r="CA36" s="17"/>
-      <c r="CB36" s="17"/>
-      <c r="CC36" s="17"/>
-      <c r="CD36" s="17"/>
-      <c r="CE36" s="17"/>
-      <c r="CF36" s="17"/>
-      <c r="CG36" s="17"/>
-      <c r="CH36" s="17"/>
-      <c r="CI36" s="17"/>
-      <c r="CJ36" s="17"/>
-      <c r="CK36" s="17"/>
-      <c r="CL36" s="17"/>
-      <c r="CM36" s="17"/>
-      <c r="CN36" s="17"/>
-      <c r="CO36" s="17"/>
-      <c r="CP36" s="17"/>
-      <c r="CQ36" s="17"/>
-      <c r="CR36" s="17"/>
-      <c r="CS36" s="17"/>
-      <c r="CT36" s="17"/>
-      <c r="CU36" s="17"/>
-      <c r="CV36" s="17"/>
-      <c r="CW36" s="17"/>
-      <c r="CX36" s="17"/>
-      <c r="CY36" s="17"/>
-      <c r="CZ36" s="17"/>
-      <c r="DA36" s="17"/>
-      <c r="DB36" s="17"/>
-      <c r="DC36" s="17"/>
-      <c r="DD36" s="17"/>
-      <c r="DE36" s="17"/>
-      <c r="DF36" s="17"/>
-      <c r="DG36" s="17"/>
-      <c r="DH36" s="17"/>
-      <c r="DI36" s="17"/>
-      <c r="DJ36" s="17"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="16"/>
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="16"/>
+      <c r="AL36" s="16"/>
+      <c r="AM36" s="16"/>
+      <c r="AN36" s="16"/>
+      <c r="AO36" s="16"/>
+      <c r="AP36" s="16"/>
+      <c r="AQ36" s="16"/>
+      <c r="AR36" s="16"/>
+      <c r="AS36" s="16"/>
+      <c r="AT36" s="16"/>
+      <c r="AU36" s="16"/>
+      <c r="AV36" s="16"/>
+      <c r="AW36" s="16"/>
+      <c r="AX36" s="16"/>
+      <c r="AY36" s="16"/>
+      <c r="AZ36" s="16"/>
+      <c r="BA36" s="16"/>
+      <c r="BB36" s="16"/>
+      <c r="BC36" s="16"/>
+      <c r="BD36" s="16"/>
+      <c r="BE36" s="16"/>
+      <c r="BF36" s="16"/>
+      <c r="BG36" s="16"/>
+      <c r="BH36" s="16"/>
+      <c r="BI36" s="16"/>
+      <c r="BJ36" s="16"/>
+      <c r="BK36" s="16"/>
+      <c r="BL36" s="16"/>
+      <c r="BM36" s="16"/>
+      <c r="BN36" s="16"/>
+      <c r="BO36" s="16"/>
+      <c r="BP36" s="16"/>
+      <c r="BQ36" s="16"/>
+      <c r="BR36" s="16"/>
+      <c r="BS36" s="16"/>
+      <c r="BT36" s="16"/>
+      <c r="BU36" s="16"/>
+      <c r="BV36" s="16"/>
+      <c r="BW36" s="16"/>
+      <c r="BX36" s="16"/>
+      <c r="BY36" s="16"/>
+      <c r="BZ36" s="16"/>
+      <c r="CA36" s="16"/>
+      <c r="CB36" s="16"/>
+      <c r="CC36" s="16"/>
+      <c r="CD36" s="16"/>
+      <c r="CE36" s="16"/>
+      <c r="CF36" s="16"/>
+      <c r="CG36" s="16"/>
+      <c r="CH36" s="16"/>
+      <c r="CI36" s="16"/>
+      <c r="CJ36" s="16"/>
+      <c r="CK36" s="16"/>
+      <c r="CL36" s="16"/>
+      <c r="CM36" s="16"/>
+      <c r="CN36" s="16"/>
+      <c r="CO36" s="16"/>
+      <c r="CP36" s="16"/>
+      <c r="CQ36" s="16"/>
+      <c r="CR36" s="16"/>
+      <c r="CS36" s="16"/>
+      <c r="CT36" s="16"/>
+      <c r="CU36" s="16"/>
+      <c r="CV36" s="16"/>
+      <c r="CW36" s="16"/>
+      <c r="CX36" s="16"/>
+      <c r="CY36" s="16"/>
+      <c r="CZ36" s="16"/>
+      <c r="DA36" s="16"/>
+      <c r="DB36" s="16"/>
+      <c r="DC36" s="16"/>
+      <c r="DD36" s="16"/>
+      <c r="DE36" s="16"/>
+      <c r="DF36" s="16"/>
+      <c r="DG36" s="16"/>
+      <c r="DH36" s="16"/>
+      <c r="DI36" s="16"/>
+      <c r="DJ36" s="16"/>
     </row>
     <row r="37" spans="1:114" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
@@ -3301,7 +3215,7 @@
       <c r="G37" s="8">
         <v>119.84874396000001</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I37" s="8" t="s">
@@ -3319,104 +3233,104 @@
       <c r="P37" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17"/>
-      <c r="AC37" s="17"/>
-      <c r="AD37" s="17"/>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="17"/>
-      <c r="AG37" s="17"/>
-      <c r="AH37" s="17"/>
-      <c r="AI37" s="17"/>
-      <c r="AJ37" s="17"/>
-      <c r="AK37" s="17"/>
-      <c r="AL37" s="17"/>
-      <c r="AM37" s="17"/>
-      <c r="AN37" s="17"/>
-      <c r="AO37" s="17"/>
-      <c r="AP37" s="17"/>
-      <c r="AQ37" s="17"/>
-      <c r="AR37" s="17"/>
-      <c r="AS37" s="17"/>
-      <c r="AT37" s="17"/>
-      <c r="AU37" s="17"/>
-      <c r="AV37" s="17"/>
-      <c r="AW37" s="17"/>
-      <c r="AX37" s="17"/>
-      <c r="AY37" s="17"/>
-      <c r="AZ37" s="17"/>
-      <c r="BA37" s="17"/>
-      <c r="BB37" s="17"/>
-      <c r="BC37" s="17"/>
-      <c r="BD37" s="17"/>
-      <c r="BE37" s="17"/>
-      <c r="BF37" s="17"/>
-      <c r="BG37" s="17"/>
-      <c r="BH37" s="17"/>
-      <c r="BI37" s="17"/>
-      <c r="BJ37" s="17"/>
-      <c r="BK37" s="17"/>
-      <c r="BL37" s="17"/>
-      <c r="BM37" s="17"/>
-      <c r="BN37" s="17"/>
-      <c r="BO37" s="17"/>
-      <c r="BP37" s="17"/>
-      <c r="BQ37" s="17"/>
-      <c r="BR37" s="17"/>
-      <c r="BS37" s="17"/>
-      <c r="BT37" s="17"/>
-      <c r="BU37" s="17"/>
-      <c r="BV37" s="17"/>
-      <c r="BW37" s="17"/>
-      <c r="BX37" s="17"/>
-      <c r="BY37" s="17"/>
-      <c r="BZ37" s="17"/>
-      <c r="CA37" s="17"/>
-      <c r="CB37" s="17"/>
-      <c r="CC37" s="17"/>
-      <c r="CD37" s="17"/>
-      <c r="CE37" s="17"/>
-      <c r="CF37" s="17"/>
-      <c r="CG37" s="17"/>
-      <c r="CH37" s="17"/>
-      <c r="CI37" s="17"/>
-      <c r="CJ37" s="17"/>
-      <c r="CK37" s="17"/>
-      <c r="CL37" s="17"/>
-      <c r="CM37" s="17"/>
-      <c r="CN37" s="17"/>
-      <c r="CO37" s="17"/>
-      <c r="CP37" s="17"/>
-      <c r="CQ37" s="17"/>
-      <c r="CR37" s="17"/>
-      <c r="CS37" s="17"/>
-      <c r="CT37" s="17"/>
-      <c r="CU37" s="17"/>
-      <c r="CV37" s="17"/>
-      <c r="CW37" s="17"/>
-      <c r="CX37" s="17"/>
-      <c r="CY37" s="17"/>
-      <c r="CZ37" s="17"/>
-      <c r="DA37" s="17"/>
-      <c r="DB37" s="17"/>
-      <c r="DC37" s="17"/>
-      <c r="DD37" s="17"/>
-      <c r="DE37" s="17"/>
-      <c r="DF37" s="17"/>
-      <c r="DG37" s="17"/>
-      <c r="DH37" s="17"/>
-      <c r="DI37" s="17"/>
-      <c r="DJ37" s="17"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="16"/>
+      <c r="AL37" s="16"/>
+      <c r="AM37" s="16"/>
+      <c r="AN37" s="16"/>
+      <c r="AO37" s="16"/>
+      <c r="AP37" s="16"/>
+      <c r="AQ37" s="16"/>
+      <c r="AR37" s="16"/>
+      <c r="AS37" s="16"/>
+      <c r="AT37" s="16"/>
+      <c r="AU37" s="16"/>
+      <c r="AV37" s="16"/>
+      <c r="AW37" s="16"/>
+      <c r="AX37" s="16"/>
+      <c r="AY37" s="16"/>
+      <c r="AZ37" s="16"/>
+      <c r="BA37" s="16"/>
+      <c r="BB37" s="16"/>
+      <c r="BC37" s="16"/>
+      <c r="BD37" s="16"/>
+      <c r="BE37" s="16"/>
+      <c r="BF37" s="16"/>
+      <c r="BG37" s="16"/>
+      <c r="BH37" s="16"/>
+      <c r="BI37" s="16"/>
+      <c r="BJ37" s="16"/>
+      <c r="BK37" s="16"/>
+      <c r="BL37" s="16"/>
+      <c r="BM37" s="16"/>
+      <c r="BN37" s="16"/>
+      <c r="BO37" s="16"/>
+      <c r="BP37" s="16"/>
+      <c r="BQ37" s="16"/>
+      <c r="BR37" s="16"/>
+      <c r="BS37" s="16"/>
+      <c r="BT37" s="16"/>
+      <c r="BU37" s="16"/>
+      <c r="BV37" s="16"/>
+      <c r="BW37" s="16"/>
+      <c r="BX37" s="16"/>
+      <c r="BY37" s="16"/>
+      <c r="BZ37" s="16"/>
+      <c r="CA37" s="16"/>
+      <c r="CB37" s="16"/>
+      <c r="CC37" s="16"/>
+      <c r="CD37" s="16"/>
+      <c r="CE37" s="16"/>
+      <c r="CF37" s="16"/>
+      <c r="CG37" s="16"/>
+      <c r="CH37" s="16"/>
+      <c r="CI37" s="16"/>
+      <c r="CJ37" s="16"/>
+      <c r="CK37" s="16"/>
+      <c r="CL37" s="16"/>
+      <c r="CM37" s="16"/>
+      <c r="CN37" s="16"/>
+      <c r="CO37" s="16"/>
+      <c r="CP37" s="16"/>
+      <c r="CQ37" s="16"/>
+      <c r="CR37" s="16"/>
+      <c r="CS37" s="16"/>
+      <c r="CT37" s="16"/>
+      <c r="CU37" s="16"/>
+      <c r="CV37" s="16"/>
+      <c r="CW37" s="16"/>
+      <c r="CX37" s="16"/>
+      <c r="CY37" s="16"/>
+      <c r="CZ37" s="16"/>
+      <c r="DA37" s="16"/>
+      <c r="DB37" s="16"/>
+      <c r="DC37" s="16"/>
+      <c r="DD37" s="16"/>
+      <c r="DE37" s="16"/>
+      <c r="DF37" s="16"/>
+      <c r="DG37" s="16"/>
+      <c r="DH37" s="16"/>
+      <c r="DI37" s="16"/>
+      <c r="DJ37" s="16"/>
     </row>
     <row r="38" spans="1:114" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
@@ -3440,7 +3354,7 @@
       <c r="G38" s="8">
         <v>119.84628661176471</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I38" s="8" t="s">
@@ -3458,246 +3372,246 @@
       <c r="P38" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="17"/>
-      <c r="AI38" s="17"/>
-      <c r="AJ38" s="17"/>
-      <c r="AK38" s="17"/>
-      <c r="AL38" s="17"/>
-      <c r="AM38" s="17"/>
-      <c r="AN38" s="17"/>
-      <c r="AO38" s="17"/>
-      <c r="AP38" s="17"/>
-      <c r="AQ38" s="17"/>
-      <c r="AR38" s="17"/>
-      <c r="AS38" s="17"/>
-      <c r="AT38" s="17"/>
-      <c r="AU38" s="17"/>
-      <c r="AV38" s="17"/>
-      <c r="AW38" s="17"/>
-      <c r="AX38" s="17"/>
-      <c r="AY38" s="17"/>
-      <c r="AZ38" s="17"/>
-      <c r="BA38" s="17"/>
-      <c r="BB38" s="17"/>
-      <c r="BC38" s="17"/>
-      <c r="BD38" s="17"/>
-      <c r="BE38" s="17"/>
-      <c r="BF38" s="17"/>
-      <c r="BG38" s="17"/>
-      <c r="BH38" s="17"/>
-      <c r="BI38" s="17"/>
-      <c r="BJ38" s="17"/>
-      <c r="BK38" s="17"/>
-      <c r="BL38" s="17"/>
-      <c r="BM38" s="17"/>
-      <c r="BN38" s="17"/>
-      <c r="BO38" s="17"/>
-      <c r="BP38" s="17"/>
-      <c r="BQ38" s="17"/>
-      <c r="BR38" s="17"/>
-      <c r="BS38" s="17"/>
-      <c r="BT38" s="17"/>
-      <c r="BU38" s="17"/>
-      <c r="BV38" s="17"/>
-      <c r="BW38" s="17"/>
-      <c r="BX38" s="17"/>
-      <c r="BY38" s="17"/>
-      <c r="BZ38" s="17"/>
-      <c r="CA38" s="17"/>
-      <c r="CB38" s="17"/>
-      <c r="CC38" s="17"/>
-      <c r="CD38" s="17"/>
-      <c r="CE38" s="17"/>
-      <c r="CF38" s="17"/>
-      <c r="CG38" s="17"/>
-      <c r="CH38" s="17"/>
-      <c r="CI38" s="17"/>
-      <c r="CJ38" s="17"/>
-      <c r="CK38" s="17"/>
-      <c r="CL38" s="17"/>
-      <c r="CM38" s="17"/>
-      <c r="CN38" s="17"/>
-      <c r="CO38" s="17"/>
-      <c r="CP38" s="17"/>
-      <c r="CQ38" s="17"/>
-      <c r="CR38" s="17"/>
-      <c r="CS38" s="17"/>
-      <c r="CT38" s="17"/>
-      <c r="CU38" s="17"/>
-      <c r="CV38" s="17"/>
-      <c r="CW38" s="17"/>
-      <c r="CX38" s="17"/>
-      <c r="CY38" s="17"/>
-      <c r="CZ38" s="17"/>
-      <c r="DA38" s="17"/>
-      <c r="DB38" s="17"/>
-      <c r="DC38" s="17"/>
-      <c r="DD38" s="17"/>
-      <c r="DE38" s="17"/>
-      <c r="DF38" s="17"/>
-      <c r="DG38" s="17"/>
-      <c r="DH38" s="17"/>
-      <c r="DI38" s="17"/>
-      <c r="DJ38" s="17"/>
-    </row>
-    <row r="39" spans="1:114" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="10">
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="16"/>
+      <c r="AJ38" s="16"/>
+      <c r="AK38" s="16"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="16"/>
+      <c r="AN38" s="16"/>
+      <c r="AO38" s="16"/>
+      <c r="AP38" s="16"/>
+      <c r="AQ38" s="16"/>
+      <c r="AR38" s="16"/>
+      <c r="AS38" s="16"/>
+      <c r="AT38" s="16"/>
+      <c r="AU38" s="16"/>
+      <c r="AV38" s="16"/>
+      <c r="AW38" s="16"/>
+      <c r="AX38" s="16"/>
+      <c r="AY38" s="16"/>
+      <c r="AZ38" s="16"/>
+      <c r="BA38" s="16"/>
+      <c r="BB38" s="16"/>
+      <c r="BC38" s="16"/>
+      <c r="BD38" s="16"/>
+      <c r="BE38" s="16"/>
+      <c r="BF38" s="16"/>
+      <c r="BG38" s="16"/>
+      <c r="BH38" s="16"/>
+      <c r="BI38" s="16"/>
+      <c r="BJ38" s="16"/>
+      <c r="BK38" s="16"/>
+      <c r="BL38" s="16"/>
+      <c r="BM38" s="16"/>
+      <c r="BN38" s="16"/>
+      <c r="BO38" s="16"/>
+      <c r="BP38" s="16"/>
+      <c r="BQ38" s="16"/>
+      <c r="BR38" s="16"/>
+      <c r="BS38" s="16"/>
+      <c r="BT38" s="16"/>
+      <c r="BU38" s="16"/>
+      <c r="BV38" s="16"/>
+      <c r="BW38" s="16"/>
+      <c r="BX38" s="16"/>
+      <c r="BY38" s="16"/>
+      <c r="BZ38" s="16"/>
+      <c r="CA38" s="16"/>
+      <c r="CB38" s="16"/>
+      <c r="CC38" s="16"/>
+      <c r="CD38" s="16"/>
+      <c r="CE38" s="16"/>
+      <c r="CF38" s="16"/>
+      <c r="CG38" s="16"/>
+      <c r="CH38" s="16"/>
+      <c r="CI38" s="16"/>
+      <c r="CJ38" s="16"/>
+      <c r="CK38" s="16"/>
+      <c r="CL38" s="16"/>
+      <c r="CM38" s="16"/>
+      <c r="CN38" s="16"/>
+      <c r="CO38" s="16"/>
+      <c r="CP38" s="16"/>
+      <c r="CQ38" s="16"/>
+      <c r="CR38" s="16"/>
+      <c r="CS38" s="16"/>
+      <c r="CT38" s="16"/>
+      <c r="CU38" s="16"/>
+      <c r="CV38" s="16"/>
+      <c r="CW38" s="16"/>
+      <c r="CX38" s="16"/>
+      <c r="CY38" s="16"/>
+      <c r="CZ38" s="16"/>
+      <c r="DA38" s="16"/>
+      <c r="DB38" s="16"/>
+      <c r="DC38" s="16"/>
+      <c r="DD38" s="16"/>
+      <c r="DE38" s="16"/>
+      <c r="DF38" s="16"/>
+      <c r="DG38" s="16"/>
+      <c r="DH38" s="16"/>
+      <c r="DI38" s="16"/>
+      <c r="DJ38" s="16"/>
+    </row>
+    <row r="39" spans="1:114" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <v>-0.87750761300000002</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="9">
         <v>119.8610224</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J39" s="10"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="M39" s="10" t="s">
+      <c r="M39" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
       <c r="P39" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19"/>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="19"/>
-      <c r="AN39" s="19"/>
-      <c r="AO39" s="19"/>
-      <c r="AP39" s="19"/>
-      <c r="AQ39" s="19"/>
-      <c r="AR39" s="19"/>
-      <c r="AS39" s="19"/>
-      <c r="AT39" s="19"/>
-      <c r="AU39" s="19"/>
-      <c r="AV39" s="19"/>
-      <c r="AW39" s="19"/>
-      <c r="AX39" s="19"/>
-      <c r="AY39" s="19"/>
-      <c r="AZ39" s="19"/>
-      <c r="BA39" s="19"/>
-      <c r="BB39" s="19"/>
-      <c r="BC39" s="19"/>
-      <c r="BD39" s="19"/>
-      <c r="BE39" s="19"/>
-      <c r="BF39" s="19"/>
-      <c r="BG39" s="19"/>
-      <c r="BH39" s="19"/>
-      <c r="BI39" s="19"/>
-      <c r="BJ39" s="19"/>
-      <c r="BK39" s="19"/>
-      <c r="BL39" s="19"/>
-      <c r="BM39" s="19"/>
-      <c r="BN39" s="19"/>
-      <c r="BO39" s="19"/>
-      <c r="BP39" s="19"/>
-      <c r="BQ39" s="19"/>
-      <c r="BR39" s="19"/>
-      <c r="BS39" s="19"/>
-      <c r="BT39" s="19"/>
-      <c r="BU39" s="19"/>
-      <c r="BV39" s="19"/>
-      <c r="BW39" s="19"/>
-      <c r="BX39" s="19"/>
-      <c r="BY39" s="19"/>
-      <c r="BZ39" s="19"/>
-      <c r="CA39" s="19"/>
-      <c r="CB39" s="19"/>
-      <c r="CC39" s="19"/>
-      <c r="CD39" s="19"/>
-      <c r="CE39" s="19"/>
-      <c r="CF39" s="19"/>
-      <c r="CG39" s="19"/>
-      <c r="CH39" s="19"/>
-      <c r="CI39" s="19"/>
-      <c r="CJ39" s="19"/>
-      <c r="CK39" s="19"/>
-      <c r="CL39" s="19"/>
-      <c r="CM39" s="19"/>
-      <c r="CN39" s="19"/>
-      <c r="CO39" s="19"/>
-      <c r="CP39" s="19"/>
-      <c r="CQ39" s="19"/>
-      <c r="CR39" s="19"/>
-      <c r="CS39" s="19"/>
-      <c r="CT39" s="19"/>
-      <c r="CU39" s="19"/>
-      <c r="CV39" s="19"/>
-      <c r="CW39" s="19"/>
-      <c r="CX39" s="19"/>
-      <c r="CY39" s="19"/>
-      <c r="CZ39" s="19"/>
-      <c r="DA39" s="19"/>
-      <c r="DB39" s="19"/>
-      <c r="DC39" s="19"/>
-      <c r="DD39" s="19"/>
-      <c r="DE39" s="19"/>
-      <c r="DF39" s="19"/>
-      <c r="DG39" s="19"/>
-      <c r="DH39" s="19"/>
-      <c r="DI39" s="19"/>
-      <c r="DJ39" s="19"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="18"/>
+      <c r="AM39" s="18"/>
+      <c r="AN39" s="18"/>
+      <c r="AO39" s="18"/>
+      <c r="AP39" s="18"/>
+      <c r="AQ39" s="18"/>
+      <c r="AR39" s="18"/>
+      <c r="AS39" s="18"/>
+      <c r="AT39" s="18"/>
+      <c r="AU39" s="18"/>
+      <c r="AV39" s="18"/>
+      <c r="AW39" s="18"/>
+      <c r="AX39" s="18"/>
+      <c r="AY39" s="18"/>
+      <c r="AZ39" s="18"/>
+      <c r="BA39" s="18"/>
+      <c r="BB39" s="18"/>
+      <c r="BC39" s="18"/>
+      <c r="BD39" s="18"/>
+      <c r="BE39" s="18"/>
+      <c r="BF39" s="18"/>
+      <c r="BG39" s="18"/>
+      <c r="BH39" s="18"/>
+      <c r="BI39" s="18"/>
+      <c r="BJ39" s="18"/>
+      <c r="BK39" s="18"/>
+      <c r="BL39" s="18"/>
+      <c r="BM39" s="18"/>
+      <c r="BN39" s="18"/>
+      <c r="BO39" s="18"/>
+      <c r="BP39" s="18"/>
+      <c r="BQ39" s="18"/>
+      <c r="BR39" s="18"/>
+      <c r="BS39" s="18"/>
+      <c r="BT39" s="18"/>
+      <c r="BU39" s="18"/>
+      <c r="BV39" s="18"/>
+      <c r="BW39" s="18"/>
+      <c r="BX39" s="18"/>
+      <c r="BY39" s="18"/>
+      <c r="BZ39" s="18"/>
+      <c r="CA39" s="18"/>
+      <c r="CB39" s="18"/>
+      <c r="CC39" s="18"/>
+      <c r="CD39" s="18"/>
+      <c r="CE39" s="18"/>
+      <c r="CF39" s="18"/>
+      <c r="CG39" s="18"/>
+      <c r="CH39" s="18"/>
+      <c r="CI39" s="18"/>
+      <c r="CJ39" s="18"/>
+      <c r="CK39" s="18"/>
+      <c r="CL39" s="18"/>
+      <c r="CM39" s="18"/>
+      <c r="CN39" s="18"/>
+      <c r="CO39" s="18"/>
+      <c r="CP39" s="18"/>
+      <c r="CQ39" s="18"/>
+      <c r="CR39" s="18"/>
+      <c r="CS39" s="18"/>
+      <c r="CT39" s="18"/>
+      <c r="CU39" s="18"/>
+      <c r="CV39" s="18"/>
+      <c r="CW39" s="18"/>
+      <c r="CX39" s="18"/>
+      <c r="CY39" s="18"/>
+      <c r="CZ39" s="18"/>
+      <c r="DA39" s="18"/>
+      <c r="DB39" s="18"/>
+      <c r="DC39" s="18"/>
+      <c r="DD39" s="18"/>
+      <c r="DE39" s="18"/>
+      <c r="DF39" s="18"/>
+      <c r="DG39" s="18"/>
+      <c r="DH39" s="18"/>
+      <c r="DI39" s="18"/>
+      <c r="DJ39" s="18"/>
     </row>
     <row r="40" spans="1:114" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
@@ -3715,7 +3629,7 @@
       <c r="E40" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I40" s="8" t="s">
@@ -3857,7 +3771,7 @@
       <c r="E41" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I41" s="8" t="s">
@@ -3884,7 +3798,7 @@
       <c r="P41" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q41" s="20"/>
+      <c r="Q41" s="19"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
@@ -3999,7 +3913,7 @@
       <c r="E42" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I42" s="8" t="s">
@@ -4026,7 +3940,7 @@
       <c r="P42" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q42" s="20"/>
+      <c r="Q42" s="19"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
@@ -4141,7 +4055,7 @@
       <c r="E43" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I43" s="8" t="s">
@@ -4168,7 +4082,7 @@
       <c r="P43" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q43" s="20"/>
+      <c r="Q43" s="19"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
@@ -4283,7 +4197,7 @@
       <c r="E44" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I44" s="8" t="s">
@@ -4310,7 +4224,7 @@
       <c r="P44" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q44" s="20"/>
+      <c r="Q44" s="19"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
@@ -4425,7 +4339,7 @@
       <c r="E45" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I45" s="8" t="s">
@@ -4452,7 +4366,7 @@
       <c r="P45" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q45" s="20"/>
+      <c r="Q45" s="19"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
@@ -4567,7 +4481,7 @@
       <c r="E46" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I46" s="8" t="s">
@@ -4594,7 +4508,7 @@
       <c r="P46" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q46" s="20"/>
+      <c r="Q46" s="19"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
@@ -4709,7 +4623,7 @@
       <c r="E47" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I47" s="8" t="s">
@@ -4736,7 +4650,7 @@
       <c r="P47" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q47" s="20"/>
+      <c r="Q47" s="19"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
@@ -4851,7 +4765,7 @@
       <c r="E48" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I48" s="8" t="s">
@@ -4878,7 +4792,7 @@
       <c r="P48" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q48" s="20"/>
+      <c r="Q48" s="19"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
@@ -4993,7 +4907,7 @@
       <c r="E49" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I49" s="8" t="s">
@@ -5002,7 +4916,7 @@
       <c r="K49" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L49" s="17" t="s">
+      <c r="L49" s="16" t="s">
         <v>167</v>
       </c>
       <c r="M49" s="8" t="s">
@@ -5011,104 +4925,104 @@
       <c r="P49" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="17"/>
-      <c r="AA49" s="17"/>
-      <c r="AB49" s="17"/>
-      <c r="AC49" s="17"/>
-      <c r="AD49" s="17"/>
-      <c r="AE49" s="17"/>
-      <c r="AF49" s="17"/>
-      <c r="AG49" s="17"/>
-      <c r="AH49" s="17"/>
-      <c r="AI49" s="17"/>
-      <c r="AJ49" s="17"/>
-      <c r="AK49" s="17"/>
-      <c r="AL49" s="17"/>
-      <c r="AM49" s="17"/>
-      <c r="AN49" s="17"/>
-      <c r="AO49" s="17"/>
-      <c r="AP49" s="17"/>
-      <c r="AQ49" s="17"/>
-      <c r="AR49" s="17"/>
-      <c r="AS49" s="17"/>
-      <c r="AT49" s="17"/>
-      <c r="AU49" s="17"/>
-      <c r="AV49" s="17"/>
-      <c r="AW49" s="17"/>
-      <c r="AX49" s="17"/>
-      <c r="AY49" s="17"/>
-      <c r="AZ49" s="17"/>
-      <c r="BA49" s="17"/>
-      <c r="BB49" s="17"/>
-      <c r="BC49" s="17"/>
-      <c r="BD49" s="17"/>
-      <c r="BE49" s="17"/>
-      <c r="BF49" s="17"/>
-      <c r="BG49" s="17"/>
-      <c r="BH49" s="17"/>
-      <c r="BI49" s="17"/>
-      <c r="BJ49" s="17"/>
-      <c r="BK49" s="17"/>
-      <c r="BL49" s="17"/>
-      <c r="BM49" s="17"/>
-      <c r="BN49" s="17"/>
-      <c r="BO49" s="17"/>
-      <c r="BP49" s="17"/>
-      <c r="BQ49" s="17"/>
-      <c r="BR49" s="17"/>
-      <c r="BS49" s="17"/>
-      <c r="BT49" s="17"/>
-      <c r="BU49" s="17"/>
-      <c r="BV49" s="17"/>
-      <c r="BW49" s="17"/>
-      <c r="BX49" s="17"/>
-      <c r="BY49" s="17"/>
-      <c r="BZ49" s="17"/>
-      <c r="CA49" s="17"/>
-      <c r="CB49" s="17"/>
-      <c r="CC49" s="17"/>
-      <c r="CD49" s="17"/>
-      <c r="CE49" s="17"/>
-      <c r="CF49" s="17"/>
-      <c r="CG49" s="17"/>
-      <c r="CH49" s="17"/>
-      <c r="CI49" s="17"/>
-      <c r="CJ49" s="17"/>
-      <c r="CK49" s="17"/>
-      <c r="CL49" s="17"/>
-      <c r="CM49" s="17"/>
-      <c r="CN49" s="17"/>
-      <c r="CO49" s="17"/>
-      <c r="CP49" s="17"/>
-      <c r="CQ49" s="17"/>
-      <c r="CR49" s="17"/>
-      <c r="CS49" s="17"/>
-      <c r="CT49" s="17"/>
-      <c r="CU49" s="17"/>
-      <c r="CV49" s="17"/>
-      <c r="CW49" s="17"/>
-      <c r="CX49" s="17"/>
-      <c r="CY49" s="17"/>
-      <c r="CZ49" s="17"/>
-      <c r="DA49" s="17"/>
-      <c r="DB49" s="17"/>
-      <c r="DC49" s="17"/>
-      <c r="DD49" s="17"/>
-      <c r="DE49" s="17"/>
-      <c r="DF49" s="17"/>
-      <c r="DG49" s="17"/>
-      <c r="DH49" s="17"/>
-      <c r="DI49" s="17"/>
-      <c r="DJ49" s="17"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="16"/>
+      <c r="AF49" s="16"/>
+      <c r="AG49" s="16"/>
+      <c r="AH49" s="16"/>
+      <c r="AI49" s="16"/>
+      <c r="AJ49" s="16"/>
+      <c r="AK49" s="16"/>
+      <c r="AL49" s="16"/>
+      <c r="AM49" s="16"/>
+      <c r="AN49" s="16"/>
+      <c r="AO49" s="16"/>
+      <c r="AP49" s="16"/>
+      <c r="AQ49" s="16"/>
+      <c r="AR49" s="16"/>
+      <c r="AS49" s="16"/>
+      <c r="AT49" s="16"/>
+      <c r="AU49" s="16"/>
+      <c r="AV49" s="16"/>
+      <c r="AW49" s="16"/>
+      <c r="AX49" s="16"/>
+      <c r="AY49" s="16"/>
+      <c r="AZ49" s="16"/>
+      <c r="BA49" s="16"/>
+      <c r="BB49" s="16"/>
+      <c r="BC49" s="16"/>
+      <c r="BD49" s="16"/>
+      <c r="BE49" s="16"/>
+      <c r="BF49" s="16"/>
+      <c r="BG49" s="16"/>
+      <c r="BH49" s="16"/>
+      <c r="BI49" s="16"/>
+      <c r="BJ49" s="16"/>
+      <c r="BK49" s="16"/>
+      <c r="BL49" s="16"/>
+      <c r="BM49" s="16"/>
+      <c r="BN49" s="16"/>
+      <c r="BO49" s="16"/>
+      <c r="BP49" s="16"/>
+      <c r="BQ49" s="16"/>
+      <c r="BR49" s="16"/>
+      <c r="BS49" s="16"/>
+      <c r="BT49" s="16"/>
+      <c r="BU49" s="16"/>
+      <c r="BV49" s="16"/>
+      <c r="BW49" s="16"/>
+      <c r="BX49" s="16"/>
+      <c r="BY49" s="16"/>
+      <c r="BZ49" s="16"/>
+      <c r="CA49" s="16"/>
+      <c r="CB49" s="16"/>
+      <c r="CC49" s="16"/>
+      <c r="CD49" s="16"/>
+      <c r="CE49" s="16"/>
+      <c r="CF49" s="16"/>
+      <c r="CG49" s="16"/>
+      <c r="CH49" s="16"/>
+      <c r="CI49" s="16"/>
+      <c r="CJ49" s="16"/>
+      <c r="CK49" s="16"/>
+      <c r="CL49" s="16"/>
+      <c r="CM49" s="16"/>
+      <c r="CN49" s="16"/>
+      <c r="CO49" s="16"/>
+      <c r="CP49" s="16"/>
+      <c r="CQ49" s="16"/>
+      <c r="CR49" s="16"/>
+      <c r="CS49" s="16"/>
+      <c r="CT49" s="16"/>
+      <c r="CU49" s="16"/>
+      <c r="CV49" s="16"/>
+      <c r="CW49" s="16"/>
+      <c r="CX49" s="16"/>
+      <c r="CY49" s="16"/>
+      <c r="CZ49" s="16"/>
+      <c r="DA49" s="16"/>
+      <c r="DB49" s="16"/>
+      <c r="DC49" s="16"/>
+      <c r="DD49" s="16"/>
+      <c r="DE49" s="16"/>
+      <c r="DF49" s="16"/>
+      <c r="DG49" s="16"/>
+      <c r="DH49" s="16"/>
+      <c r="DI49" s="16"/>
+      <c r="DJ49" s="16"/>
     </row>
     <row r="50" spans="1:114" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
@@ -5126,7 +5040,7 @@
       <c r="E50" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I50" s="8" t="s">
@@ -5138,7 +5052,7 @@
       <c r="K50" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L50" s="17" t="s">
+      <c r="L50" s="16" t="s">
         <v>168</v>
       </c>
       <c r="M50" s="8" t="s">
@@ -5153,104 +5067,104 @@
       <c r="P50" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="17"/>
-      <c r="AB50" s="17"/>
-      <c r="AC50" s="17"/>
-      <c r="AD50" s="17"/>
-      <c r="AE50" s="17"/>
-      <c r="AF50" s="17"/>
-      <c r="AG50" s="17"/>
-      <c r="AH50" s="17"/>
-      <c r="AI50" s="17"/>
-      <c r="AJ50" s="17"/>
-      <c r="AK50" s="17"/>
-      <c r="AL50" s="17"/>
-      <c r="AM50" s="17"/>
-      <c r="AN50" s="17"/>
-      <c r="AO50" s="17"/>
-      <c r="AP50" s="17"/>
-      <c r="AQ50" s="17"/>
-      <c r="AR50" s="17"/>
-      <c r="AS50" s="17"/>
-      <c r="AT50" s="17"/>
-      <c r="AU50" s="17"/>
-      <c r="AV50" s="17"/>
-      <c r="AW50" s="17"/>
-      <c r="AX50" s="17"/>
-      <c r="AY50" s="17"/>
-      <c r="AZ50" s="17"/>
-      <c r="BA50" s="17"/>
-      <c r="BB50" s="17"/>
-      <c r="BC50" s="17"/>
-      <c r="BD50" s="17"/>
-      <c r="BE50" s="17"/>
-      <c r="BF50" s="17"/>
-      <c r="BG50" s="17"/>
-      <c r="BH50" s="17"/>
-      <c r="BI50" s="17"/>
-      <c r="BJ50" s="17"/>
-      <c r="BK50" s="17"/>
-      <c r="BL50" s="17"/>
-      <c r="BM50" s="17"/>
-      <c r="BN50" s="17"/>
-      <c r="BO50" s="17"/>
-      <c r="BP50" s="17"/>
-      <c r="BQ50" s="17"/>
-      <c r="BR50" s="17"/>
-      <c r="BS50" s="17"/>
-      <c r="BT50" s="17"/>
-      <c r="BU50" s="17"/>
-      <c r="BV50" s="17"/>
-      <c r="BW50" s="17"/>
-      <c r="BX50" s="17"/>
-      <c r="BY50" s="17"/>
-      <c r="BZ50" s="17"/>
-      <c r="CA50" s="17"/>
-      <c r="CB50" s="17"/>
-      <c r="CC50" s="17"/>
-      <c r="CD50" s="17"/>
-      <c r="CE50" s="17"/>
-      <c r="CF50" s="17"/>
-      <c r="CG50" s="17"/>
-      <c r="CH50" s="17"/>
-      <c r="CI50" s="17"/>
-      <c r="CJ50" s="17"/>
-      <c r="CK50" s="17"/>
-      <c r="CL50" s="17"/>
-      <c r="CM50" s="17"/>
-      <c r="CN50" s="17"/>
-      <c r="CO50" s="17"/>
-      <c r="CP50" s="17"/>
-      <c r="CQ50" s="17"/>
-      <c r="CR50" s="17"/>
-      <c r="CS50" s="17"/>
-      <c r="CT50" s="17"/>
-      <c r="CU50" s="17"/>
-      <c r="CV50" s="17"/>
-      <c r="CW50" s="17"/>
-      <c r="CX50" s="17"/>
-      <c r="CY50" s="17"/>
-      <c r="CZ50" s="17"/>
-      <c r="DA50" s="17"/>
-      <c r="DB50" s="17"/>
-      <c r="DC50" s="17"/>
-      <c r="DD50" s="17"/>
-      <c r="DE50" s="17"/>
-      <c r="DF50" s="17"/>
-      <c r="DG50" s="17"/>
-      <c r="DH50" s="17"/>
-      <c r="DI50" s="17"/>
-      <c r="DJ50" s="17"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
+      <c r="AD50" s="16"/>
+      <c r="AE50" s="16"/>
+      <c r="AF50" s="16"/>
+      <c r="AG50" s="16"/>
+      <c r="AH50" s="16"/>
+      <c r="AI50" s="16"/>
+      <c r="AJ50" s="16"/>
+      <c r="AK50" s="16"/>
+      <c r="AL50" s="16"/>
+      <c r="AM50" s="16"/>
+      <c r="AN50" s="16"/>
+      <c r="AO50" s="16"/>
+      <c r="AP50" s="16"/>
+      <c r="AQ50" s="16"/>
+      <c r="AR50" s="16"/>
+      <c r="AS50" s="16"/>
+      <c r="AT50" s="16"/>
+      <c r="AU50" s="16"/>
+      <c r="AV50" s="16"/>
+      <c r="AW50" s="16"/>
+      <c r="AX50" s="16"/>
+      <c r="AY50" s="16"/>
+      <c r="AZ50" s="16"/>
+      <c r="BA50" s="16"/>
+      <c r="BB50" s="16"/>
+      <c r="BC50" s="16"/>
+      <c r="BD50" s="16"/>
+      <c r="BE50" s="16"/>
+      <c r="BF50" s="16"/>
+      <c r="BG50" s="16"/>
+      <c r="BH50" s="16"/>
+      <c r="BI50" s="16"/>
+      <c r="BJ50" s="16"/>
+      <c r="BK50" s="16"/>
+      <c r="BL50" s="16"/>
+      <c r="BM50" s="16"/>
+      <c r="BN50" s="16"/>
+      <c r="BO50" s="16"/>
+      <c r="BP50" s="16"/>
+      <c r="BQ50" s="16"/>
+      <c r="BR50" s="16"/>
+      <c r="BS50" s="16"/>
+      <c r="BT50" s="16"/>
+      <c r="BU50" s="16"/>
+      <c r="BV50" s="16"/>
+      <c r="BW50" s="16"/>
+      <c r="BX50" s="16"/>
+      <c r="BY50" s="16"/>
+      <c r="BZ50" s="16"/>
+      <c r="CA50" s="16"/>
+      <c r="CB50" s="16"/>
+      <c r="CC50" s="16"/>
+      <c r="CD50" s="16"/>
+      <c r="CE50" s="16"/>
+      <c r="CF50" s="16"/>
+      <c r="CG50" s="16"/>
+      <c r="CH50" s="16"/>
+      <c r="CI50" s="16"/>
+      <c r="CJ50" s="16"/>
+      <c r="CK50" s="16"/>
+      <c r="CL50" s="16"/>
+      <c r="CM50" s="16"/>
+      <c r="CN50" s="16"/>
+      <c r="CO50" s="16"/>
+      <c r="CP50" s="16"/>
+      <c r="CQ50" s="16"/>
+      <c r="CR50" s="16"/>
+      <c r="CS50" s="16"/>
+      <c r="CT50" s="16"/>
+      <c r="CU50" s="16"/>
+      <c r="CV50" s="16"/>
+      <c r="CW50" s="16"/>
+      <c r="CX50" s="16"/>
+      <c r="CY50" s="16"/>
+      <c r="CZ50" s="16"/>
+      <c r="DA50" s="16"/>
+      <c r="DB50" s="16"/>
+      <c r="DC50" s="16"/>
+      <c r="DD50" s="16"/>
+      <c r="DE50" s="16"/>
+      <c r="DF50" s="16"/>
+      <c r="DG50" s="16"/>
+      <c r="DH50" s="16"/>
+      <c r="DI50" s="16"/>
+      <c r="DJ50" s="16"/>
     </row>
     <row r="51" spans="1:114" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
@@ -5268,7 +5182,7 @@
       <c r="E51" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I51" s="8" t="s">
@@ -5280,7 +5194,7 @@
       <c r="K51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L51" s="17" t="s">
+      <c r="L51" s="16" t="s">
         <v>169</v>
       </c>
       <c r="M51" s="8" t="s">
@@ -5295,104 +5209,104 @@
       <c r="P51" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="17"/>
-      <c r="AC51" s="17"/>
-      <c r="AD51" s="17"/>
-      <c r="AE51" s="17"/>
-      <c r="AF51" s="17"/>
-      <c r="AG51" s="17"/>
-      <c r="AH51" s="17"/>
-      <c r="AI51" s="17"/>
-      <c r="AJ51" s="17"/>
-      <c r="AK51" s="17"/>
-      <c r="AL51" s="17"/>
-      <c r="AM51" s="17"/>
-      <c r="AN51" s="17"/>
-      <c r="AO51" s="17"/>
-      <c r="AP51" s="17"/>
-      <c r="AQ51" s="17"/>
-      <c r="AR51" s="17"/>
-      <c r="AS51" s="17"/>
-      <c r="AT51" s="17"/>
-      <c r="AU51" s="17"/>
-      <c r="AV51" s="17"/>
-      <c r="AW51" s="17"/>
-      <c r="AX51" s="17"/>
-      <c r="AY51" s="17"/>
-      <c r="AZ51" s="17"/>
-      <c r="BA51" s="17"/>
-      <c r="BB51" s="17"/>
-      <c r="BC51" s="17"/>
-      <c r="BD51" s="17"/>
-      <c r="BE51" s="17"/>
-      <c r="BF51" s="17"/>
-      <c r="BG51" s="17"/>
-      <c r="BH51" s="17"/>
-      <c r="BI51" s="17"/>
-      <c r="BJ51" s="17"/>
-      <c r="BK51" s="17"/>
-      <c r="BL51" s="17"/>
-      <c r="BM51" s="17"/>
-      <c r="BN51" s="17"/>
-      <c r="BO51" s="17"/>
-      <c r="BP51" s="17"/>
-      <c r="BQ51" s="17"/>
-      <c r="BR51" s="17"/>
-      <c r="BS51" s="17"/>
-      <c r="BT51" s="17"/>
-      <c r="BU51" s="17"/>
-      <c r="BV51" s="17"/>
-      <c r="BW51" s="17"/>
-      <c r="BX51" s="17"/>
-      <c r="BY51" s="17"/>
-      <c r="BZ51" s="17"/>
-      <c r="CA51" s="17"/>
-      <c r="CB51" s="17"/>
-      <c r="CC51" s="17"/>
-      <c r="CD51" s="17"/>
-      <c r="CE51" s="17"/>
-      <c r="CF51" s="17"/>
-      <c r="CG51" s="17"/>
-      <c r="CH51" s="17"/>
-      <c r="CI51" s="17"/>
-      <c r="CJ51" s="17"/>
-      <c r="CK51" s="17"/>
-      <c r="CL51" s="17"/>
-      <c r="CM51" s="17"/>
-      <c r="CN51" s="17"/>
-      <c r="CO51" s="17"/>
-      <c r="CP51" s="17"/>
-      <c r="CQ51" s="17"/>
-      <c r="CR51" s="17"/>
-      <c r="CS51" s="17"/>
-      <c r="CT51" s="17"/>
-      <c r="CU51" s="17"/>
-      <c r="CV51" s="17"/>
-      <c r="CW51" s="17"/>
-      <c r="CX51" s="17"/>
-      <c r="CY51" s="17"/>
-      <c r="CZ51" s="17"/>
-      <c r="DA51" s="17"/>
-      <c r="DB51" s="17"/>
-      <c r="DC51" s="17"/>
-      <c r="DD51" s="17"/>
-      <c r="DE51" s="17"/>
-      <c r="DF51" s="17"/>
-      <c r="DG51" s="17"/>
-      <c r="DH51" s="17"/>
-      <c r="DI51" s="17"/>
-      <c r="DJ51" s="17"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="16"/>
+      <c r="AE51" s="16"/>
+      <c r="AF51" s="16"/>
+      <c r="AG51" s="16"/>
+      <c r="AH51" s="16"/>
+      <c r="AI51" s="16"/>
+      <c r="AJ51" s="16"/>
+      <c r="AK51" s="16"/>
+      <c r="AL51" s="16"/>
+      <c r="AM51" s="16"/>
+      <c r="AN51" s="16"/>
+      <c r="AO51" s="16"/>
+      <c r="AP51" s="16"/>
+      <c r="AQ51" s="16"/>
+      <c r="AR51" s="16"/>
+      <c r="AS51" s="16"/>
+      <c r="AT51" s="16"/>
+      <c r="AU51" s="16"/>
+      <c r="AV51" s="16"/>
+      <c r="AW51" s="16"/>
+      <c r="AX51" s="16"/>
+      <c r="AY51" s="16"/>
+      <c r="AZ51" s="16"/>
+      <c r="BA51" s="16"/>
+      <c r="BB51" s="16"/>
+      <c r="BC51" s="16"/>
+      <c r="BD51" s="16"/>
+      <c r="BE51" s="16"/>
+      <c r="BF51" s="16"/>
+      <c r="BG51" s="16"/>
+      <c r="BH51" s="16"/>
+      <c r="BI51" s="16"/>
+      <c r="BJ51" s="16"/>
+      <c r="BK51" s="16"/>
+      <c r="BL51" s="16"/>
+      <c r="BM51" s="16"/>
+      <c r="BN51" s="16"/>
+      <c r="BO51" s="16"/>
+      <c r="BP51" s="16"/>
+      <c r="BQ51" s="16"/>
+      <c r="BR51" s="16"/>
+      <c r="BS51" s="16"/>
+      <c r="BT51" s="16"/>
+      <c r="BU51" s="16"/>
+      <c r="BV51" s="16"/>
+      <c r="BW51" s="16"/>
+      <c r="BX51" s="16"/>
+      <c r="BY51" s="16"/>
+      <c r="BZ51" s="16"/>
+      <c r="CA51" s="16"/>
+      <c r="CB51" s="16"/>
+      <c r="CC51" s="16"/>
+      <c r="CD51" s="16"/>
+      <c r="CE51" s="16"/>
+      <c r="CF51" s="16"/>
+      <c r="CG51" s="16"/>
+      <c r="CH51" s="16"/>
+      <c r="CI51" s="16"/>
+      <c r="CJ51" s="16"/>
+      <c r="CK51" s="16"/>
+      <c r="CL51" s="16"/>
+      <c r="CM51" s="16"/>
+      <c r="CN51" s="16"/>
+      <c r="CO51" s="16"/>
+      <c r="CP51" s="16"/>
+      <c r="CQ51" s="16"/>
+      <c r="CR51" s="16"/>
+      <c r="CS51" s="16"/>
+      <c r="CT51" s="16"/>
+      <c r="CU51" s="16"/>
+      <c r="CV51" s="16"/>
+      <c r="CW51" s="16"/>
+      <c r="CX51" s="16"/>
+      <c r="CY51" s="16"/>
+      <c r="CZ51" s="16"/>
+      <c r="DA51" s="16"/>
+      <c r="DB51" s="16"/>
+      <c r="DC51" s="16"/>
+      <c r="DD51" s="16"/>
+      <c r="DE51" s="16"/>
+      <c r="DF51" s="16"/>
+      <c r="DG51" s="16"/>
+      <c r="DH51" s="16"/>
+      <c r="DI51" s="16"/>
+      <c r="DJ51" s="16"/>
     </row>
     <row r="52" spans="1:114" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
@@ -5410,7 +5324,7 @@
       <c r="E52" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I52" s="8" t="s">
@@ -5422,7 +5336,7 @@
       <c r="K52" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L52" s="17" t="s">
+      <c r="L52" s="16" t="s">
         <v>170</v>
       </c>
       <c r="M52" s="8" t="s">
@@ -5437,104 +5351,104 @@
       <c r="P52" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="17"/>
-      <c r="AB52" s="17"/>
-      <c r="AC52" s="17"/>
-      <c r="AD52" s="17"/>
-      <c r="AE52" s="17"/>
-      <c r="AF52" s="17"/>
-      <c r="AG52" s="17"/>
-      <c r="AH52" s="17"/>
-      <c r="AI52" s="17"/>
-      <c r="AJ52" s="17"/>
-      <c r="AK52" s="17"/>
-      <c r="AL52" s="17"/>
-      <c r="AM52" s="17"/>
-      <c r="AN52" s="17"/>
-      <c r="AO52" s="17"/>
-      <c r="AP52" s="17"/>
-      <c r="AQ52" s="17"/>
-      <c r="AR52" s="17"/>
-      <c r="AS52" s="17"/>
-      <c r="AT52" s="17"/>
-      <c r="AU52" s="17"/>
-      <c r="AV52" s="17"/>
-      <c r="AW52" s="17"/>
-      <c r="AX52" s="17"/>
-      <c r="AY52" s="17"/>
-      <c r="AZ52" s="17"/>
-      <c r="BA52" s="17"/>
-      <c r="BB52" s="17"/>
-      <c r="BC52" s="17"/>
-      <c r="BD52" s="17"/>
-      <c r="BE52" s="17"/>
-      <c r="BF52" s="17"/>
-      <c r="BG52" s="17"/>
-      <c r="BH52" s="17"/>
-      <c r="BI52" s="17"/>
-      <c r="BJ52" s="17"/>
-      <c r="BK52" s="17"/>
-      <c r="BL52" s="17"/>
-      <c r="BM52" s="17"/>
-      <c r="BN52" s="17"/>
-      <c r="BO52" s="17"/>
-      <c r="BP52" s="17"/>
-      <c r="BQ52" s="17"/>
-      <c r="BR52" s="17"/>
-      <c r="BS52" s="17"/>
-      <c r="BT52" s="17"/>
-      <c r="BU52" s="17"/>
-      <c r="BV52" s="17"/>
-      <c r="BW52" s="17"/>
-      <c r="BX52" s="17"/>
-      <c r="BY52" s="17"/>
-      <c r="BZ52" s="17"/>
-      <c r="CA52" s="17"/>
-      <c r="CB52" s="17"/>
-      <c r="CC52" s="17"/>
-      <c r="CD52" s="17"/>
-      <c r="CE52" s="17"/>
-      <c r="CF52" s="17"/>
-      <c r="CG52" s="17"/>
-      <c r="CH52" s="17"/>
-      <c r="CI52" s="17"/>
-      <c r="CJ52" s="17"/>
-      <c r="CK52" s="17"/>
-      <c r="CL52" s="17"/>
-      <c r="CM52" s="17"/>
-      <c r="CN52" s="17"/>
-      <c r="CO52" s="17"/>
-      <c r="CP52" s="17"/>
-      <c r="CQ52" s="17"/>
-      <c r="CR52" s="17"/>
-      <c r="CS52" s="17"/>
-      <c r="CT52" s="17"/>
-      <c r="CU52" s="17"/>
-      <c r="CV52" s="17"/>
-      <c r="CW52" s="17"/>
-      <c r="CX52" s="17"/>
-      <c r="CY52" s="17"/>
-      <c r="CZ52" s="17"/>
-      <c r="DA52" s="17"/>
-      <c r="DB52" s="17"/>
-      <c r="DC52" s="17"/>
-      <c r="DD52" s="17"/>
-      <c r="DE52" s="17"/>
-      <c r="DF52" s="17"/>
-      <c r="DG52" s="17"/>
-      <c r="DH52" s="17"/>
-      <c r="DI52" s="17"/>
-      <c r="DJ52" s="17"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16"/>
+      <c r="AD52" s="16"/>
+      <c r="AE52" s="16"/>
+      <c r="AF52" s="16"/>
+      <c r="AG52" s="16"/>
+      <c r="AH52" s="16"/>
+      <c r="AI52" s="16"/>
+      <c r="AJ52" s="16"/>
+      <c r="AK52" s="16"/>
+      <c r="AL52" s="16"/>
+      <c r="AM52" s="16"/>
+      <c r="AN52" s="16"/>
+      <c r="AO52" s="16"/>
+      <c r="AP52" s="16"/>
+      <c r="AQ52" s="16"/>
+      <c r="AR52" s="16"/>
+      <c r="AS52" s="16"/>
+      <c r="AT52" s="16"/>
+      <c r="AU52" s="16"/>
+      <c r="AV52" s="16"/>
+      <c r="AW52" s="16"/>
+      <c r="AX52" s="16"/>
+      <c r="AY52" s="16"/>
+      <c r="AZ52" s="16"/>
+      <c r="BA52" s="16"/>
+      <c r="BB52" s="16"/>
+      <c r="BC52" s="16"/>
+      <c r="BD52" s="16"/>
+      <c r="BE52" s="16"/>
+      <c r="BF52" s="16"/>
+      <c r="BG52" s="16"/>
+      <c r="BH52" s="16"/>
+      <c r="BI52" s="16"/>
+      <c r="BJ52" s="16"/>
+      <c r="BK52" s="16"/>
+      <c r="BL52" s="16"/>
+      <c r="BM52" s="16"/>
+      <c r="BN52" s="16"/>
+      <c r="BO52" s="16"/>
+      <c r="BP52" s="16"/>
+      <c r="BQ52" s="16"/>
+      <c r="BR52" s="16"/>
+      <c r="BS52" s="16"/>
+      <c r="BT52" s="16"/>
+      <c r="BU52" s="16"/>
+      <c r="BV52" s="16"/>
+      <c r="BW52" s="16"/>
+      <c r="BX52" s="16"/>
+      <c r="BY52" s="16"/>
+      <c r="BZ52" s="16"/>
+      <c r="CA52" s="16"/>
+      <c r="CB52" s="16"/>
+      <c r="CC52" s="16"/>
+      <c r="CD52" s="16"/>
+      <c r="CE52" s="16"/>
+      <c r="CF52" s="16"/>
+      <c r="CG52" s="16"/>
+      <c r="CH52" s="16"/>
+      <c r="CI52" s="16"/>
+      <c r="CJ52" s="16"/>
+      <c r="CK52" s="16"/>
+      <c r="CL52" s="16"/>
+      <c r="CM52" s="16"/>
+      <c r="CN52" s="16"/>
+      <c r="CO52" s="16"/>
+      <c r="CP52" s="16"/>
+      <c r="CQ52" s="16"/>
+      <c r="CR52" s="16"/>
+      <c r="CS52" s="16"/>
+      <c r="CT52" s="16"/>
+      <c r="CU52" s="16"/>
+      <c r="CV52" s="16"/>
+      <c r="CW52" s="16"/>
+      <c r="CX52" s="16"/>
+      <c r="CY52" s="16"/>
+      <c r="CZ52" s="16"/>
+      <c r="DA52" s="16"/>
+      <c r="DB52" s="16"/>
+      <c r="DC52" s="16"/>
+      <c r="DD52" s="16"/>
+      <c r="DE52" s="16"/>
+      <c r="DF52" s="16"/>
+      <c r="DG52" s="16"/>
+      <c r="DH52" s="16"/>
+      <c r="DI52" s="16"/>
+      <c r="DJ52" s="16"/>
     </row>
     <row r="53" spans="1:114" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
@@ -5552,7 +5466,7 @@
       <c r="E53" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I53" s="8" t="s">
@@ -5561,7 +5475,7 @@
       <c r="K53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L53" s="17" t="s">
+      <c r="L53" s="16" t="s">
         <v>171</v>
       </c>
       <c r="M53" s="8" t="s">
@@ -5570,104 +5484,104 @@
       <c r="P53" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="17"/>
-      <c r="AB53" s="17"/>
-      <c r="AC53" s="17"/>
-      <c r="AD53" s="17"/>
-      <c r="AE53" s="17"/>
-      <c r="AF53" s="17"/>
-      <c r="AG53" s="17"/>
-      <c r="AH53" s="17"/>
-      <c r="AI53" s="17"/>
-      <c r="AJ53" s="17"/>
-      <c r="AK53" s="17"/>
-      <c r="AL53" s="17"/>
-      <c r="AM53" s="17"/>
-      <c r="AN53" s="17"/>
-      <c r="AO53" s="17"/>
-      <c r="AP53" s="17"/>
-      <c r="AQ53" s="17"/>
-      <c r="AR53" s="17"/>
-      <c r="AS53" s="17"/>
-      <c r="AT53" s="17"/>
-      <c r="AU53" s="17"/>
-      <c r="AV53" s="17"/>
-      <c r="AW53" s="17"/>
-      <c r="AX53" s="17"/>
-      <c r="AY53" s="17"/>
-      <c r="AZ53" s="17"/>
-      <c r="BA53" s="17"/>
-      <c r="BB53" s="17"/>
-      <c r="BC53" s="17"/>
-      <c r="BD53" s="17"/>
-      <c r="BE53" s="17"/>
-      <c r="BF53" s="17"/>
-      <c r="BG53" s="17"/>
-      <c r="BH53" s="17"/>
-      <c r="BI53" s="17"/>
-      <c r="BJ53" s="17"/>
-      <c r="BK53" s="17"/>
-      <c r="BL53" s="17"/>
-      <c r="BM53" s="17"/>
-      <c r="BN53" s="17"/>
-      <c r="BO53" s="17"/>
-      <c r="BP53" s="17"/>
-      <c r="BQ53" s="17"/>
-      <c r="BR53" s="17"/>
-      <c r="BS53" s="17"/>
-      <c r="BT53" s="17"/>
-      <c r="BU53" s="17"/>
-      <c r="BV53" s="17"/>
-      <c r="BW53" s="17"/>
-      <c r="BX53" s="17"/>
-      <c r="BY53" s="17"/>
-      <c r="BZ53" s="17"/>
-      <c r="CA53" s="17"/>
-      <c r="CB53" s="17"/>
-      <c r="CC53" s="17"/>
-      <c r="CD53" s="17"/>
-      <c r="CE53" s="17"/>
-      <c r="CF53" s="17"/>
-      <c r="CG53" s="17"/>
-      <c r="CH53" s="17"/>
-      <c r="CI53" s="17"/>
-      <c r="CJ53" s="17"/>
-      <c r="CK53" s="17"/>
-      <c r="CL53" s="17"/>
-      <c r="CM53" s="17"/>
-      <c r="CN53" s="17"/>
-      <c r="CO53" s="17"/>
-      <c r="CP53" s="17"/>
-      <c r="CQ53" s="17"/>
-      <c r="CR53" s="17"/>
-      <c r="CS53" s="17"/>
-      <c r="CT53" s="17"/>
-      <c r="CU53" s="17"/>
-      <c r="CV53" s="17"/>
-      <c r="CW53" s="17"/>
-      <c r="CX53" s="17"/>
-      <c r="CY53" s="17"/>
-      <c r="CZ53" s="17"/>
-      <c r="DA53" s="17"/>
-      <c r="DB53" s="17"/>
-      <c r="DC53" s="17"/>
-      <c r="DD53" s="17"/>
-      <c r="DE53" s="17"/>
-      <c r="DF53" s="17"/>
-      <c r="DG53" s="17"/>
-      <c r="DH53" s="17"/>
-      <c r="DI53" s="17"/>
-      <c r="DJ53" s="17"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="16"/>
+      <c r="AD53" s="16"/>
+      <c r="AE53" s="16"/>
+      <c r="AF53" s="16"/>
+      <c r="AG53" s="16"/>
+      <c r="AH53" s="16"/>
+      <c r="AI53" s="16"/>
+      <c r="AJ53" s="16"/>
+      <c r="AK53" s="16"/>
+      <c r="AL53" s="16"/>
+      <c r="AM53" s="16"/>
+      <c r="AN53" s="16"/>
+      <c r="AO53" s="16"/>
+      <c r="AP53" s="16"/>
+      <c r="AQ53" s="16"/>
+      <c r="AR53" s="16"/>
+      <c r="AS53" s="16"/>
+      <c r="AT53" s="16"/>
+      <c r="AU53" s="16"/>
+      <c r="AV53" s="16"/>
+      <c r="AW53" s="16"/>
+      <c r="AX53" s="16"/>
+      <c r="AY53" s="16"/>
+      <c r="AZ53" s="16"/>
+      <c r="BA53" s="16"/>
+      <c r="BB53" s="16"/>
+      <c r="BC53" s="16"/>
+      <c r="BD53" s="16"/>
+      <c r="BE53" s="16"/>
+      <c r="BF53" s="16"/>
+      <c r="BG53" s="16"/>
+      <c r="BH53" s="16"/>
+      <c r="BI53" s="16"/>
+      <c r="BJ53" s="16"/>
+      <c r="BK53" s="16"/>
+      <c r="BL53" s="16"/>
+      <c r="BM53" s="16"/>
+      <c r="BN53" s="16"/>
+      <c r="BO53" s="16"/>
+      <c r="BP53" s="16"/>
+      <c r="BQ53" s="16"/>
+      <c r="BR53" s="16"/>
+      <c r="BS53" s="16"/>
+      <c r="BT53" s="16"/>
+      <c r="BU53" s="16"/>
+      <c r="BV53" s="16"/>
+      <c r="BW53" s="16"/>
+      <c r="BX53" s="16"/>
+      <c r="BY53" s="16"/>
+      <c r="BZ53" s="16"/>
+      <c r="CA53" s="16"/>
+      <c r="CB53" s="16"/>
+      <c r="CC53" s="16"/>
+      <c r="CD53" s="16"/>
+      <c r="CE53" s="16"/>
+      <c r="CF53" s="16"/>
+      <c r="CG53" s="16"/>
+      <c r="CH53" s="16"/>
+      <c r="CI53" s="16"/>
+      <c r="CJ53" s="16"/>
+      <c r="CK53" s="16"/>
+      <c r="CL53" s="16"/>
+      <c r="CM53" s="16"/>
+      <c r="CN53" s="16"/>
+      <c r="CO53" s="16"/>
+      <c r="CP53" s="16"/>
+      <c r="CQ53" s="16"/>
+      <c r="CR53" s="16"/>
+      <c r="CS53" s="16"/>
+      <c r="CT53" s="16"/>
+      <c r="CU53" s="16"/>
+      <c r="CV53" s="16"/>
+      <c r="CW53" s="16"/>
+      <c r="CX53" s="16"/>
+      <c r="CY53" s="16"/>
+      <c r="CZ53" s="16"/>
+      <c r="DA53" s="16"/>
+      <c r="DB53" s="16"/>
+      <c r="DC53" s="16"/>
+      <c r="DD53" s="16"/>
+      <c r="DE53" s="16"/>
+      <c r="DF53" s="16"/>
+      <c r="DG53" s="16"/>
+      <c r="DH53" s="16"/>
+      <c r="DI53" s="16"/>
+      <c r="DJ53" s="16"/>
     </row>
     <row r="54" spans="1:114" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
@@ -5685,7 +5599,7 @@
       <c r="E54" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I54" s="8" t="s">
@@ -5697,7 +5611,7 @@
       <c r="K54" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L54" s="17" t="s">
+      <c r="L54" s="16" t="s">
         <v>172</v>
       </c>
       <c r="M54" s="8" t="s">
@@ -5712,38 +5626,38 @@
       <c r="P54" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="17"/>
-      <c r="AA54" s="17"/>
-      <c r="AB54" s="17"/>
-      <c r="AC54" s="17"/>
-      <c r="AD54" s="17"/>
-      <c r="AE54" s="17"/>
-      <c r="AF54" s="17"/>
-      <c r="AG54" s="17"/>
-      <c r="AH54" s="17"/>
-      <c r="AI54" s="17"/>
-      <c r="AJ54" s="17"/>
-      <c r="AK54" s="17"/>
-      <c r="AL54" s="17"/>
-      <c r="AM54" s="17"/>
-      <c r="AN54" s="17"/>
-      <c r="AO54" s="17"/>
-      <c r="AP54" s="17"/>
-      <c r="AQ54" s="17"/>
-      <c r="AR54" s="17"/>
-      <c r="AS54" s="17"/>
-      <c r="AT54" s="17"/>
-      <c r="AU54" s="17"/>
-      <c r="AV54" s="17"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="16"/>
+      <c r="AD54" s="16"/>
+      <c r="AE54" s="16"/>
+      <c r="AF54" s="16"/>
+      <c r="AG54" s="16"/>
+      <c r="AH54" s="16"/>
+      <c r="AI54" s="16"/>
+      <c r="AJ54" s="16"/>
+      <c r="AK54" s="16"/>
+      <c r="AL54" s="16"/>
+      <c r="AM54" s="16"/>
+      <c r="AN54" s="16"/>
+      <c r="AO54" s="16"/>
+      <c r="AP54" s="16"/>
+      <c r="AQ54" s="16"/>
+      <c r="AR54" s="16"/>
+      <c r="AS54" s="16"/>
+      <c r="AT54" s="16"/>
+      <c r="AU54" s="16"/>
+      <c r="AV54" s="16"/>
     </row>
     <row r="55" spans="1:114" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
@@ -5761,7 +5675,7 @@
       <c r="E55" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I55" s="8" t="s">
@@ -5773,7 +5687,7 @@
       <c r="K55" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L55" s="17" t="s">
+      <c r="L55" s="16" t="s">
         <v>173</v>
       </c>
       <c r="M55" s="8" t="s">
@@ -5788,38 +5702,38 @@
       <c r="P55" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="17"/>
-      <c r="AA55" s="17"/>
-      <c r="AB55" s="17"/>
-      <c r="AC55" s="17"/>
-      <c r="AD55" s="17"/>
-      <c r="AE55" s="17"/>
-      <c r="AF55" s="17"/>
-      <c r="AG55" s="17"/>
-      <c r="AH55" s="17"/>
-      <c r="AI55" s="17"/>
-      <c r="AJ55" s="17"/>
-      <c r="AK55" s="17"/>
-      <c r="AL55" s="17"/>
-      <c r="AM55" s="17"/>
-      <c r="AN55" s="17"/>
-      <c r="AO55" s="17"/>
-      <c r="AP55" s="17"/>
-      <c r="AQ55" s="17"/>
-      <c r="AR55" s="17"/>
-      <c r="AS55" s="17"/>
-      <c r="AT55" s="17"/>
-      <c r="AU55" s="17"/>
-      <c r="AV55" s="17"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="16"/>
+      <c r="AF55" s="16"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="16"/>
+      <c r="AI55" s="16"/>
+      <c r="AJ55" s="16"/>
+      <c r="AK55" s="16"/>
+      <c r="AL55" s="16"/>
+      <c r="AM55" s="16"/>
+      <c r="AN55" s="16"/>
+      <c r="AO55" s="16"/>
+      <c r="AP55" s="16"/>
+      <c r="AQ55" s="16"/>
+      <c r="AR55" s="16"/>
+      <c r="AS55" s="16"/>
+      <c r="AT55" s="16"/>
+      <c r="AU55" s="16"/>
+      <c r="AV55" s="16"/>
     </row>
     <row r="56" spans="1:114" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
@@ -5837,7 +5751,7 @@
       <c r="E56" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="H56" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I56" s="8" t="s">
@@ -5864,7 +5778,7 @@
       <c r="P56" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q56" s="20"/>
+      <c r="Q56" s="19"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
@@ -5913,7 +5827,7 @@
       <c r="E57" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="H57" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I57" s="8" t="s">
@@ -5940,7 +5854,7 @@
       <c r="P57" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q57" s="20"/>
+      <c r="Q57" s="19"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
@@ -5989,7 +5903,7 @@
       <c r="E58" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="H58" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I58" s="8" t="s">
@@ -6016,122 +5930,123 @@
       <c r="P58" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q58" s="20"/>
-    </row>
-    <row r="59" spans="1:114" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="10">
+      <c r="Q58" s="19"/>
+    </row>
+    <row r="59" spans="1:114" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
         <v>58</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="16" t="s">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="I59" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="J59" s="9" t="s">
         <v>112</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L59" s="11" t="s">
+      <c r="L59" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="M59" s="10" t="s">
+      <c r="M59" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="N59" s="10" t="s">
+      <c r="N59" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="O59" s="10">
+      <c r="O59" s="9">
         <v>15</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="Q59" s="22"/>
+      <c r="Q59" s="21"/>
     </row>
     <row r="60" spans="1:114" x14ac:dyDescent="0.3">
-      <c r="H60" s="13"/>
+      <c r="H60" s="12"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="23"/>
+      <c r="L60" s="22"/>
     </row>
     <row r="61" spans="1:114" x14ac:dyDescent="0.3">
-      <c r="H61" s="13"/>
+      <c r="H61" s="12"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="23"/>
+      <c r="L61" s="22"/>
     </row>
     <row r="62" spans="1:114" x14ac:dyDescent="0.3">
-      <c r="H62" s="13"/>
+      <c r="H62" s="12"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="23"/>
+      <c r="L62" s="22"/>
     </row>
     <row r="63" spans="1:114" x14ac:dyDescent="0.3">
-      <c r="H63" s="13"/>
+      <c r="H63" s="12"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="23"/>
+      <c r="L63" s="22"/>
     </row>
     <row r="64" spans="1:114" ht="15" x14ac:dyDescent="0.35">
-      <c r="H64" s="13"/>
+      <c r="H64" s="12"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="24"/>
+      <c r="L64" s="23"/>
     </row>
     <row r="65" spans="8:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="H65" s="13"/>
+      <c r="H65" s="12"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="24"/>
+      <c r="L65" s="23"/>
     </row>
     <row r="66" spans="8:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="H66" s="13"/>
+      <c r="H66" s="12"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="24"/>
+      <c r="L66" s="23"/>
     </row>
     <row r="67" spans="8:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="H67" s="13"/>
+      <c r="H67" s="12"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="24"/>
+      <c r="L67" s="23"/>
     </row>
     <row r="70" spans="8:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="H70" s="13"/>
+      <c r="H70" s="12"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="24"/>
+      <c r="L70" s="23"/>
     </row>
     <row r="71" spans="8:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="H71" s="13"/>
+      <c r="H71" s="12"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="24"/>
+      <c r="L71" s="23"/>
     </row>
     <row r="72" spans="8:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="H72" s="13"/>
+      <c r="H72" s="12"/>
       <c r="K72" s="2"/>
-      <c r="L72" s="24"/>
+      <c r="L72" s="23"/>
     </row>
     <row r="73" spans="8:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="H73" s="13"/>
+      <c r="H73" s="12"/>
       <c r="K73" s="2"/>
-      <c r="L73" s="24"/>
+      <c r="L73" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{98E6075B-FBB4-4A86-AA66-6F9B3E00286C}"/>
-    <hyperlink ref="L3:L59" r:id="rId2" display="https://doi.org/10.5194/egusphere-2022-206" xr:uid="{62D18476-081D-4888-BC92-FED4F960C794}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{72CCE400-2255-4C42-93DE-FE014A312651}"/>
+    <hyperlink ref="L3:L59" r:id="rId3" display="https://doi.org/10.5194/egusphere-2022-206" xr:uid="{62D18476-081D-4888-BC92-FED4F960C794}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/etris_data_prodcuts_table.xlsx
+++ b/etris_data_prodcuts_table.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Postdoc UniNa\TSUNAMI RISK SERVICE FOR EPOS\Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Postdoc UniNa\TSUNAMI RISK SERVICE FOR EPOS\Data and data products to share\etris_data_and_data_products_20221003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC9D93F-273F-47AB-9D3D-AA520F87FBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512FE52A-8B63-47C2-9ED2-1C2A96C2F60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{BE6ED569-74C1-403B-A9B0-A09F9278D048}"/>
+    <workbookView xWindow="3204" yWindow="516" windowWidth="17004" windowHeight="10620" xr2:uid="{BE6ED569-74C1-403B-A9B0-A09F9278D048}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fragility curves" sheetId="1" r:id="rId1"/>
+    <sheet name="Fragility" sheetId="2" r:id="rId1"/>
+    <sheet name="Fragility curves" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="188">
   <si>
     <t>Country</t>
   </si>
@@ -598,12 +599,203 @@
       <t>et al. Tsunami Hazard and Built Environment Damage Observations from Palu City after the September 28 2018 Sulawesi Earthquake and Tsunami. Pure Appl. Geophys. 176, 3305–3321 (2019). </t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Suppasri, A., Mas, E., Charvet, I., Gunasekera, R., Imai, K., Fukutani, Y., Abe, Y. and Imamura, F., 2013. Building damage characteristics based on surveyed data and fragility curves of the 2011 Great East Japan tsunami. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Natural Hazards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>66</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), pp.319-341.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Koshimura, S., Oie, T., Yanagisawa, H. and Imamura, F., 2009. Developing fragility functions for tsunami damage estimation using numerical model and post-tsunami data from Banda Aceh, Indonesia. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Coastal Engineering Journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3), pp.243-273.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Paulik, R., Gusman, A., Williams, J.H. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Tsunami Hazard and Built Environment Damage Observations from Palu City after the September 28 2018 Sulawesi Earthquake and Tsunami. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pure Appl. Geophys.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>176, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>3305–3321 (2019). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reese, S., Bradley, B. A., Bind, J., Smart, G., Power, W., &amp; Sturman, J. (2011). Empirical building fragilities from observed damage in the 2009 South Pacific tsunami. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Earth-Science Reviews</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>107</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1-2), 156-173.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +881,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -732,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -803,6 +1042,61 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1117,11 +1411,5049 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8EE2FB-74FA-43B5-BAD7-340825284211}">
+  <dimension ref="A1:DJ73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="126.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.5546875" style="29" customWidth="1"/>
+    <col min="12" max="12" width="44.6640625" style="29" customWidth="1"/>
+    <col min="13" max="13" width="60.5546875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" style="29" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="253.6640625" customWidth="1"/>
+    <col min="17" max="17" width="46.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q1" s="28"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="29">
+        <v>0</v>
+      </c>
+      <c r="G2" s="29">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="29">
+        <v>5560</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q2" s="28"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="29">
+        <v>0</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="29">
+        <v>11554</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q3" s="28"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" s="29">
+        <v>177618</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q4" s="28"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="28"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" s="29">
+        <v>1335</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q6" s="28"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="29">
+        <v>51259</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="28"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="29">
+        <v>1903</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q8" s="28"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="29">
+        <v>1812</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q9" s="28"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="29">
+        <v>79292</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" s="28"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="29">
+        <v>630</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q11" s="28"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="29">
+        <v>0</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q12" s="28"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="28"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q14" s="28"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="29">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q15" s="28"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q16" s="28"/>
+    </row>
+    <row r="17" spans="1:114" x14ac:dyDescent="0.3">
+      <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q17" s="28"/>
+    </row>
+    <row r="18" spans="1:114" x14ac:dyDescent="0.3">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="29">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q18" s="28"/>
+    </row>
+    <row r="19" spans="1:114" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30">
+        <v>18</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="30">
+        <v>0</v>
+      </c>
+      <c r="G19" s="30">
+        <v>0</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="30"/>
+      <c r="K19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" s="31"/>
+    </row>
+    <row r="20" spans="1:114" x14ac:dyDescent="0.3">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q20" s="35"/>
+    </row>
+    <row r="21" spans="1:114" x14ac:dyDescent="0.3">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q21" s="28"/>
+    </row>
+    <row r="22" spans="1:114" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="30"/>
+      <c r="K22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q22" s="31"/>
+    </row>
+    <row r="23" spans="1:114" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="29">
+        <v>-0.87438240099999964</v>
+      </c>
+      <c r="G23" s="29">
+        <v>119.86592876875</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O23" s="29">
+        <v>14</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q23" s="28"/>
+    </row>
+    <row r="24" spans="1:114" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="29">
+        <v>-0.87438240099999964</v>
+      </c>
+      <c r="G24" s="29">
+        <v>119.86592876875</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O24" s="29">
+        <v>14</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q24" s="28"/>
+    </row>
+    <row r="25" spans="1:114" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="29">
+        <v>-0.87438240099999964</v>
+      </c>
+      <c r="G25" s="29">
+        <v>119.86592876875</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O25" s="29">
+        <v>14</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q25" s="28"/>
+    </row>
+    <row r="26" spans="1:114" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="29">
+        <v>-0.87987461898721209</v>
+      </c>
+      <c r="G26" s="29">
+        <v>119.86070662352947</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O26" s="29">
+        <v>279</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q26" s="28"/>
+    </row>
+    <row r="27" spans="1:114" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A27" s="29">
+        <v>26</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="29">
+        <v>-0.87987461898721209</v>
+      </c>
+      <c r="G27" s="29">
+        <v>119.86070662352947</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O27" s="29">
+        <v>279</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q27" s="28"/>
+    </row>
+    <row r="28" spans="1:114" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A28" s="29">
+        <v>27</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="29">
+        <v>-0.87987461898721209</v>
+      </c>
+      <c r="G28" s="29">
+        <v>119.86070662352947</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O28" s="29">
+        <v>279</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q28" s="28"/>
+    </row>
+    <row r="29" spans="1:114" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A29" s="29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="29">
+        <v>-0.88014563295989268</v>
+      </c>
+      <c r="G29" s="29">
+        <v>119.86030693235301</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O29" s="29">
+        <v>37</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q29" s="28"/>
+    </row>
+    <row r="30" spans="1:114" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="29">
+        <v>-0.88014563295989268</v>
+      </c>
+      <c r="G30" s="29">
+        <v>119.86030693235301</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="N30" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O30" s="29">
+        <v>37</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q30" s="28"/>
+    </row>
+    <row r="31" spans="1:114" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A31" s="29">
+        <v>30</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="29">
+        <v>-0.88014563295989268</v>
+      </c>
+      <c r="G31" s="29">
+        <v>119.86030693235301</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L31" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="N31" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O31" s="29">
+        <v>37</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q31" s="28"/>
+    </row>
+    <row r="32" spans="1:114" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A32" s="29">
+        <v>31</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="29">
+        <v>-0.88467330128671351</v>
+      </c>
+      <c r="G32" s="29">
+        <v>119.84787273286717</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="37"/>
+      <c r="AO32" s="37"/>
+      <c r="AP32" s="37"/>
+      <c r="AQ32" s="37"/>
+      <c r="AR32" s="37"/>
+      <c r="AS32" s="37"/>
+      <c r="AT32" s="37"/>
+      <c r="AU32" s="37"/>
+      <c r="AV32" s="37"/>
+      <c r="AW32" s="37"/>
+      <c r="AX32" s="37"/>
+      <c r="AY32" s="37"/>
+      <c r="AZ32" s="37"/>
+      <c r="BA32" s="37"/>
+      <c r="BB32" s="37"/>
+      <c r="BC32" s="37"/>
+      <c r="BD32" s="37"/>
+      <c r="BE32" s="37"/>
+      <c r="BF32" s="37"/>
+      <c r="BG32" s="37"/>
+      <c r="BH32" s="37"/>
+      <c r="BI32" s="37"/>
+      <c r="BJ32" s="37"/>
+      <c r="BK32" s="37"/>
+      <c r="BL32" s="37"/>
+      <c r="BM32" s="37"/>
+      <c r="BN32" s="37"/>
+      <c r="BO32" s="37"/>
+      <c r="BP32" s="37"/>
+      <c r="BQ32" s="37"/>
+      <c r="BR32" s="37"/>
+      <c r="BS32" s="37"/>
+      <c r="BT32" s="37"/>
+      <c r="BU32" s="37"/>
+      <c r="BV32" s="37"/>
+      <c r="BW32" s="37"/>
+      <c r="BX32" s="37"/>
+      <c r="BY32" s="37"/>
+      <c r="BZ32" s="37"/>
+      <c r="CA32" s="37"/>
+      <c r="CB32" s="37"/>
+      <c r="CC32" s="37"/>
+      <c r="CD32" s="37"/>
+      <c r="CE32" s="37"/>
+      <c r="CF32" s="37"/>
+      <c r="CG32" s="37"/>
+      <c r="CH32" s="37"/>
+      <c r="CI32" s="37"/>
+      <c r="CJ32" s="37"/>
+      <c r="CK32" s="37"/>
+      <c r="CL32" s="37"/>
+      <c r="CM32" s="37"/>
+      <c r="CN32" s="37"/>
+      <c r="CO32" s="37"/>
+      <c r="CP32" s="37"/>
+      <c r="CQ32" s="37"/>
+      <c r="CR32" s="37"/>
+      <c r="CS32" s="37"/>
+      <c r="CT32" s="37"/>
+      <c r="CU32" s="37"/>
+      <c r="CV32" s="37"/>
+      <c r="CW32" s="37"/>
+      <c r="CX32" s="37"/>
+      <c r="CY32" s="37"/>
+      <c r="CZ32" s="37"/>
+      <c r="DA32" s="37"/>
+      <c r="DB32" s="37"/>
+      <c r="DC32" s="37"/>
+      <c r="DD32" s="37"/>
+      <c r="DE32" s="37"/>
+      <c r="DF32" s="37"/>
+      <c r="DG32" s="37"/>
+      <c r="DH32" s="37"/>
+      <c r="DI32" s="37"/>
+      <c r="DJ32" s="37"/>
+    </row>
+    <row r="33" spans="1:114" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A33" s="29">
+        <v>32</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="38">
+        <v>-0.88282969284615398</v>
+      </c>
+      <c r="G33" s="38">
+        <v>119.84857013076922</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O33" s="29">
+        <v>12</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AM33" s="37"/>
+      <c r="AN33" s="37"/>
+      <c r="AO33" s="37"/>
+      <c r="AP33" s="37"/>
+      <c r="AQ33" s="37"/>
+      <c r="AR33" s="37"/>
+      <c r="AS33" s="37"/>
+      <c r="AT33" s="37"/>
+      <c r="AU33" s="37"/>
+      <c r="AV33" s="37"/>
+      <c r="AW33" s="37"/>
+      <c r="AX33" s="37"/>
+      <c r="AY33" s="37"/>
+      <c r="AZ33" s="37"/>
+      <c r="BA33" s="37"/>
+      <c r="BB33" s="37"/>
+      <c r="BC33" s="37"/>
+      <c r="BD33" s="37"/>
+      <c r="BE33" s="37"/>
+      <c r="BF33" s="37"/>
+      <c r="BG33" s="37"/>
+      <c r="BH33" s="37"/>
+      <c r="BI33" s="37"/>
+      <c r="BJ33" s="37"/>
+      <c r="BK33" s="37"/>
+      <c r="BL33" s="37"/>
+      <c r="BM33" s="37"/>
+      <c r="BN33" s="37"/>
+      <c r="BO33" s="37"/>
+      <c r="BP33" s="37"/>
+      <c r="BQ33" s="37"/>
+      <c r="BR33" s="37"/>
+      <c r="BS33" s="37"/>
+      <c r="BT33" s="37"/>
+      <c r="BU33" s="37"/>
+      <c r="BV33" s="37"/>
+      <c r="BW33" s="37"/>
+      <c r="BX33" s="37"/>
+      <c r="BY33" s="37"/>
+      <c r="BZ33" s="37"/>
+      <c r="CA33" s="37"/>
+      <c r="CB33" s="37"/>
+      <c r="CC33" s="37"/>
+      <c r="CD33" s="37"/>
+      <c r="CE33" s="37"/>
+      <c r="CF33" s="37"/>
+      <c r="CG33" s="37"/>
+      <c r="CH33" s="37"/>
+      <c r="CI33" s="37"/>
+      <c r="CJ33" s="37"/>
+      <c r="CK33" s="37"/>
+      <c r="CL33" s="37"/>
+      <c r="CM33" s="37"/>
+      <c r="CN33" s="37"/>
+      <c r="CO33" s="37"/>
+      <c r="CP33" s="37"/>
+      <c r="CQ33" s="37"/>
+      <c r="CR33" s="37"/>
+      <c r="CS33" s="37"/>
+      <c r="CT33" s="37"/>
+      <c r="CU33" s="37"/>
+      <c r="CV33" s="37"/>
+      <c r="CW33" s="37"/>
+      <c r="CX33" s="37"/>
+      <c r="CY33" s="37"/>
+      <c r="CZ33" s="37"/>
+      <c r="DA33" s="37"/>
+      <c r="DB33" s="37"/>
+      <c r="DC33" s="37"/>
+      <c r="DD33" s="37"/>
+      <c r="DE33" s="37"/>
+      <c r="DF33" s="37"/>
+      <c r="DG33" s="37"/>
+      <c r="DH33" s="37"/>
+      <c r="DI33" s="37"/>
+      <c r="DJ33" s="37"/>
+    </row>
+    <row r="34" spans="1:114" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A34" s="29">
+        <v>33</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="38">
+        <v>-0.88282969284615398</v>
+      </c>
+      <c r="G34" s="38">
+        <v>119.84857013076922</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O34" s="29">
+        <v>12</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="37"/>
+      <c r="AL34" s="37"/>
+      <c r="AM34" s="37"/>
+      <c r="AN34" s="37"/>
+      <c r="AO34" s="37"/>
+      <c r="AP34" s="37"/>
+      <c r="AQ34" s="37"/>
+      <c r="AR34" s="37"/>
+      <c r="AS34" s="37"/>
+      <c r="AT34" s="37"/>
+      <c r="AU34" s="37"/>
+      <c r="AV34" s="37"/>
+      <c r="AW34" s="37"/>
+      <c r="AX34" s="37"/>
+      <c r="AY34" s="37"/>
+      <c r="AZ34" s="37"/>
+      <c r="BA34" s="37"/>
+      <c r="BB34" s="37"/>
+      <c r="BC34" s="37"/>
+      <c r="BD34" s="37"/>
+      <c r="BE34" s="37"/>
+      <c r="BF34" s="37"/>
+      <c r="BG34" s="37"/>
+      <c r="BH34" s="37"/>
+      <c r="BI34" s="37"/>
+      <c r="BJ34" s="37"/>
+      <c r="BK34" s="37"/>
+      <c r="BL34" s="37"/>
+      <c r="BM34" s="37"/>
+      <c r="BN34" s="37"/>
+      <c r="BO34" s="37"/>
+      <c r="BP34" s="37"/>
+      <c r="BQ34" s="37"/>
+      <c r="BR34" s="37"/>
+      <c r="BS34" s="37"/>
+      <c r="BT34" s="37"/>
+      <c r="BU34" s="37"/>
+      <c r="BV34" s="37"/>
+      <c r="BW34" s="37"/>
+      <c r="BX34" s="37"/>
+      <c r="BY34" s="37"/>
+      <c r="BZ34" s="37"/>
+      <c r="CA34" s="37"/>
+      <c r="CB34" s="37"/>
+      <c r="CC34" s="37"/>
+      <c r="CD34" s="37"/>
+      <c r="CE34" s="37"/>
+      <c r="CF34" s="37"/>
+      <c r="CG34" s="37"/>
+      <c r="CH34" s="37"/>
+      <c r="CI34" s="37"/>
+      <c r="CJ34" s="37"/>
+      <c r="CK34" s="37"/>
+      <c r="CL34" s="37"/>
+      <c r="CM34" s="37"/>
+      <c r="CN34" s="37"/>
+      <c r="CO34" s="37"/>
+      <c r="CP34" s="37"/>
+      <c r="CQ34" s="37"/>
+      <c r="CR34" s="37"/>
+      <c r="CS34" s="37"/>
+      <c r="CT34" s="37"/>
+      <c r="CU34" s="37"/>
+      <c r="CV34" s="37"/>
+      <c r="CW34" s="37"/>
+      <c r="CX34" s="37"/>
+      <c r="CY34" s="37"/>
+      <c r="CZ34" s="37"/>
+      <c r="DA34" s="37"/>
+      <c r="DB34" s="37"/>
+      <c r="DC34" s="37"/>
+      <c r="DD34" s="37"/>
+      <c r="DE34" s="37"/>
+      <c r="DF34" s="37"/>
+      <c r="DG34" s="37"/>
+      <c r="DH34" s="37"/>
+      <c r="DI34" s="37"/>
+      <c r="DJ34" s="37"/>
+    </row>
+    <row r="35" spans="1:114" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A35" s="29">
+        <v>34</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="38">
+        <v>-0.88282969284615398</v>
+      </c>
+      <c r="G35" s="38">
+        <v>119.84857013076922</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="N35" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O35" s="29">
+        <v>12</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AG35" s="37"/>
+      <c r="AH35" s="37"/>
+      <c r="AI35" s="37"/>
+      <c r="AJ35" s="37"/>
+      <c r="AK35" s="37"/>
+      <c r="AL35" s="37"/>
+      <c r="AM35" s="37"/>
+      <c r="AN35" s="37"/>
+      <c r="AO35" s="37"/>
+      <c r="AP35" s="37"/>
+      <c r="AQ35" s="37"/>
+      <c r="AR35" s="37"/>
+      <c r="AS35" s="37"/>
+      <c r="AT35" s="37"/>
+      <c r="AU35" s="37"/>
+      <c r="AV35" s="37"/>
+      <c r="AW35" s="37"/>
+      <c r="AX35" s="37"/>
+      <c r="AY35" s="37"/>
+      <c r="AZ35" s="37"/>
+      <c r="BA35" s="37"/>
+      <c r="BB35" s="37"/>
+      <c r="BC35" s="37"/>
+      <c r="BD35" s="37"/>
+      <c r="BE35" s="37"/>
+      <c r="BF35" s="37"/>
+      <c r="BG35" s="37"/>
+      <c r="BH35" s="37"/>
+      <c r="BI35" s="37"/>
+      <c r="BJ35" s="37"/>
+      <c r="BK35" s="37"/>
+      <c r="BL35" s="37"/>
+      <c r="BM35" s="37"/>
+      <c r="BN35" s="37"/>
+      <c r="BO35" s="37"/>
+      <c r="BP35" s="37"/>
+      <c r="BQ35" s="37"/>
+      <c r="BR35" s="37"/>
+      <c r="BS35" s="37"/>
+      <c r="BT35" s="37"/>
+      <c r="BU35" s="37"/>
+      <c r="BV35" s="37"/>
+      <c r="BW35" s="37"/>
+      <c r="BX35" s="37"/>
+      <c r="BY35" s="37"/>
+      <c r="BZ35" s="37"/>
+      <c r="CA35" s="37"/>
+      <c r="CB35" s="37"/>
+      <c r="CC35" s="37"/>
+      <c r="CD35" s="37"/>
+      <c r="CE35" s="37"/>
+      <c r="CF35" s="37"/>
+      <c r="CG35" s="37"/>
+      <c r="CH35" s="37"/>
+      <c r="CI35" s="37"/>
+      <c r="CJ35" s="37"/>
+      <c r="CK35" s="37"/>
+      <c r="CL35" s="37"/>
+      <c r="CM35" s="37"/>
+      <c r="CN35" s="37"/>
+      <c r="CO35" s="37"/>
+      <c r="CP35" s="37"/>
+      <c r="CQ35" s="37"/>
+      <c r="CR35" s="37"/>
+      <c r="CS35" s="37"/>
+      <c r="CT35" s="37"/>
+      <c r="CU35" s="37"/>
+      <c r="CV35" s="37"/>
+      <c r="CW35" s="37"/>
+      <c r="CX35" s="37"/>
+      <c r="CY35" s="37"/>
+      <c r="CZ35" s="37"/>
+      <c r="DA35" s="37"/>
+      <c r="DB35" s="37"/>
+      <c r="DC35" s="37"/>
+      <c r="DD35" s="37"/>
+      <c r="DE35" s="37"/>
+      <c r="DF35" s="37"/>
+      <c r="DG35" s="37"/>
+      <c r="DH35" s="37"/>
+      <c r="DI35" s="37"/>
+      <c r="DJ35" s="37"/>
+    </row>
+    <row r="36" spans="1:114" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A36" s="29">
+        <v>35</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="29">
+        <v>-0.88592622933333331</v>
+      </c>
+      <c r="G36" s="29">
+        <v>119.8553508</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="37"/>
+      <c r="AM36" s="37"/>
+      <c r="AN36" s="37"/>
+      <c r="AO36" s="37"/>
+      <c r="AP36" s="37"/>
+      <c r="AQ36" s="37"/>
+      <c r="AR36" s="37"/>
+      <c r="AS36" s="37"/>
+      <c r="AT36" s="37"/>
+      <c r="AU36" s="37"/>
+      <c r="AV36" s="37"/>
+      <c r="AW36" s="37"/>
+      <c r="AX36" s="37"/>
+      <c r="AY36" s="37"/>
+      <c r="AZ36" s="37"/>
+      <c r="BA36" s="37"/>
+      <c r="BB36" s="37"/>
+      <c r="BC36" s="37"/>
+      <c r="BD36" s="37"/>
+      <c r="BE36" s="37"/>
+      <c r="BF36" s="37"/>
+      <c r="BG36" s="37"/>
+      <c r="BH36" s="37"/>
+      <c r="BI36" s="37"/>
+      <c r="BJ36" s="37"/>
+      <c r="BK36" s="37"/>
+      <c r="BL36" s="37"/>
+      <c r="BM36" s="37"/>
+      <c r="BN36" s="37"/>
+      <c r="BO36" s="37"/>
+      <c r="BP36" s="37"/>
+      <c r="BQ36" s="37"/>
+      <c r="BR36" s="37"/>
+      <c r="BS36" s="37"/>
+      <c r="BT36" s="37"/>
+      <c r="BU36" s="37"/>
+      <c r="BV36" s="37"/>
+      <c r="BW36" s="37"/>
+      <c r="BX36" s="37"/>
+      <c r="BY36" s="37"/>
+      <c r="BZ36" s="37"/>
+      <c r="CA36" s="37"/>
+      <c r="CB36" s="37"/>
+      <c r="CC36" s="37"/>
+      <c r="CD36" s="37"/>
+      <c r="CE36" s="37"/>
+      <c r="CF36" s="37"/>
+      <c r="CG36" s="37"/>
+      <c r="CH36" s="37"/>
+      <c r="CI36" s="37"/>
+      <c r="CJ36" s="37"/>
+      <c r="CK36" s="37"/>
+      <c r="CL36" s="37"/>
+      <c r="CM36" s="37"/>
+      <c r="CN36" s="37"/>
+      <c r="CO36" s="37"/>
+      <c r="CP36" s="37"/>
+      <c r="CQ36" s="37"/>
+      <c r="CR36" s="37"/>
+      <c r="CS36" s="37"/>
+      <c r="CT36" s="37"/>
+      <c r="CU36" s="37"/>
+      <c r="CV36" s="37"/>
+      <c r="CW36" s="37"/>
+      <c r="CX36" s="37"/>
+      <c r="CY36" s="37"/>
+      <c r="CZ36" s="37"/>
+      <c r="DA36" s="37"/>
+      <c r="DB36" s="37"/>
+      <c r="DC36" s="37"/>
+      <c r="DD36" s="37"/>
+      <c r="DE36" s="37"/>
+      <c r="DF36" s="37"/>
+      <c r="DG36" s="37"/>
+      <c r="DH36" s="37"/>
+      <c r="DI36" s="37"/>
+      <c r="DJ36" s="37"/>
+    </row>
+    <row r="37" spans="1:114" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A37" s="29">
+        <v>36</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="29">
+        <v>-0.88402332424999996</v>
+      </c>
+      <c r="G37" s="29">
+        <v>119.84874396000001</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L37" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="37"/>
+      <c r="AK37" s="37"/>
+      <c r="AL37" s="37"/>
+      <c r="AM37" s="37"/>
+      <c r="AN37" s="37"/>
+      <c r="AO37" s="37"/>
+      <c r="AP37" s="37"/>
+      <c r="AQ37" s="37"/>
+      <c r="AR37" s="37"/>
+      <c r="AS37" s="37"/>
+      <c r="AT37" s="37"/>
+      <c r="AU37" s="37"/>
+      <c r="AV37" s="37"/>
+      <c r="AW37" s="37"/>
+      <c r="AX37" s="37"/>
+      <c r="AY37" s="37"/>
+      <c r="AZ37" s="37"/>
+      <c r="BA37" s="37"/>
+      <c r="BB37" s="37"/>
+      <c r="BC37" s="37"/>
+      <c r="BD37" s="37"/>
+      <c r="BE37" s="37"/>
+      <c r="BF37" s="37"/>
+      <c r="BG37" s="37"/>
+      <c r="BH37" s="37"/>
+      <c r="BI37" s="37"/>
+      <c r="BJ37" s="37"/>
+      <c r="BK37" s="37"/>
+      <c r="BL37" s="37"/>
+      <c r="BM37" s="37"/>
+      <c r="BN37" s="37"/>
+      <c r="BO37" s="37"/>
+      <c r="BP37" s="37"/>
+      <c r="BQ37" s="37"/>
+      <c r="BR37" s="37"/>
+      <c r="BS37" s="37"/>
+      <c r="BT37" s="37"/>
+      <c r="BU37" s="37"/>
+      <c r="BV37" s="37"/>
+      <c r="BW37" s="37"/>
+      <c r="BX37" s="37"/>
+      <c r="BY37" s="37"/>
+      <c r="BZ37" s="37"/>
+      <c r="CA37" s="37"/>
+      <c r="CB37" s="37"/>
+      <c r="CC37" s="37"/>
+      <c r="CD37" s="37"/>
+      <c r="CE37" s="37"/>
+      <c r="CF37" s="37"/>
+      <c r="CG37" s="37"/>
+      <c r="CH37" s="37"/>
+      <c r="CI37" s="37"/>
+      <c r="CJ37" s="37"/>
+      <c r="CK37" s="37"/>
+      <c r="CL37" s="37"/>
+      <c r="CM37" s="37"/>
+      <c r="CN37" s="37"/>
+      <c r="CO37" s="37"/>
+      <c r="CP37" s="37"/>
+      <c r="CQ37" s="37"/>
+      <c r="CR37" s="37"/>
+      <c r="CS37" s="37"/>
+      <c r="CT37" s="37"/>
+      <c r="CU37" s="37"/>
+      <c r="CV37" s="37"/>
+      <c r="CW37" s="37"/>
+      <c r="CX37" s="37"/>
+      <c r="CY37" s="37"/>
+      <c r="CZ37" s="37"/>
+      <c r="DA37" s="37"/>
+      <c r="DB37" s="37"/>
+      <c r="DC37" s="37"/>
+      <c r="DD37" s="37"/>
+      <c r="DE37" s="37"/>
+      <c r="DF37" s="37"/>
+      <c r="DG37" s="37"/>
+      <c r="DH37" s="37"/>
+      <c r="DI37" s="37"/>
+      <c r="DJ37" s="37"/>
+    </row>
+    <row r="38" spans="1:114" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A38" s="29">
+        <v>37</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="29">
+        <v>-0.88396194617647061</v>
+      </c>
+      <c r="G38" s="29">
+        <v>119.84628661176471</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L38" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
+      <c r="AK38" s="37"/>
+      <c r="AL38" s="37"/>
+      <c r="AM38" s="37"/>
+      <c r="AN38" s="37"/>
+      <c r="AO38" s="37"/>
+      <c r="AP38" s="37"/>
+      <c r="AQ38" s="37"/>
+      <c r="AR38" s="37"/>
+      <c r="AS38" s="37"/>
+      <c r="AT38" s="37"/>
+      <c r="AU38" s="37"/>
+      <c r="AV38" s="37"/>
+      <c r="AW38" s="37"/>
+      <c r="AX38" s="37"/>
+      <c r="AY38" s="37"/>
+      <c r="AZ38" s="37"/>
+      <c r="BA38" s="37"/>
+      <c r="BB38" s="37"/>
+      <c r="BC38" s="37"/>
+      <c r="BD38" s="37"/>
+      <c r="BE38" s="37"/>
+      <c r="BF38" s="37"/>
+      <c r="BG38" s="37"/>
+      <c r="BH38" s="37"/>
+      <c r="BI38" s="37"/>
+      <c r="BJ38" s="37"/>
+      <c r="BK38" s="37"/>
+      <c r="BL38" s="37"/>
+      <c r="BM38" s="37"/>
+      <c r="BN38" s="37"/>
+      <c r="BO38" s="37"/>
+      <c r="BP38" s="37"/>
+      <c r="BQ38" s="37"/>
+      <c r="BR38" s="37"/>
+      <c r="BS38" s="37"/>
+      <c r="BT38" s="37"/>
+      <c r="BU38" s="37"/>
+      <c r="BV38" s="37"/>
+      <c r="BW38" s="37"/>
+      <c r="BX38" s="37"/>
+      <c r="BY38" s="37"/>
+      <c r="BZ38" s="37"/>
+      <c r="CA38" s="37"/>
+      <c r="CB38" s="37"/>
+      <c r="CC38" s="37"/>
+      <c r="CD38" s="37"/>
+      <c r="CE38" s="37"/>
+      <c r="CF38" s="37"/>
+      <c r="CG38" s="37"/>
+      <c r="CH38" s="37"/>
+      <c r="CI38" s="37"/>
+      <c r="CJ38" s="37"/>
+      <c r="CK38" s="37"/>
+      <c r="CL38" s="37"/>
+      <c r="CM38" s="37"/>
+      <c r="CN38" s="37"/>
+      <c r="CO38" s="37"/>
+      <c r="CP38" s="37"/>
+      <c r="CQ38" s="37"/>
+      <c r="CR38" s="37"/>
+      <c r="CS38" s="37"/>
+      <c r="CT38" s="37"/>
+      <c r="CU38" s="37"/>
+      <c r="CV38" s="37"/>
+      <c r="CW38" s="37"/>
+      <c r="CX38" s="37"/>
+      <c r="CY38" s="37"/>
+      <c r="CZ38" s="37"/>
+      <c r="DA38" s="37"/>
+      <c r="DB38" s="37"/>
+      <c r="DC38" s="37"/>
+      <c r="DD38" s="37"/>
+      <c r="DE38" s="37"/>
+      <c r="DF38" s="37"/>
+      <c r="DG38" s="37"/>
+      <c r="DH38" s="37"/>
+      <c r="DI38" s="37"/>
+      <c r="DJ38" s="37"/>
+    </row>
+    <row r="39" spans="1:114" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="30">
+        <v>38</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="30">
+        <v>-0.87750761300000002</v>
+      </c>
+      <c r="G39" s="30">
+        <v>119.8610224</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J39" s="30"/>
+      <c r="K39" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L39" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="M39" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39"/>
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="39"/>
+      <c r="AK39" s="39"/>
+      <c r="AL39" s="39"/>
+      <c r="AM39" s="39"/>
+      <c r="AN39" s="39"/>
+      <c r="AO39" s="39"/>
+      <c r="AP39" s="39"/>
+      <c r="AQ39" s="39"/>
+      <c r="AR39" s="39"/>
+      <c r="AS39" s="39"/>
+      <c r="AT39" s="39"/>
+      <c r="AU39" s="39"/>
+      <c r="AV39" s="39"/>
+      <c r="AW39" s="39"/>
+      <c r="AX39" s="39"/>
+      <c r="AY39" s="39"/>
+      <c r="AZ39" s="39"/>
+      <c r="BA39" s="39"/>
+      <c r="BB39" s="39"/>
+      <c r="BC39" s="39"/>
+      <c r="BD39" s="39"/>
+      <c r="BE39" s="39"/>
+      <c r="BF39" s="39"/>
+      <c r="BG39" s="39"/>
+      <c r="BH39" s="39"/>
+      <c r="BI39" s="39"/>
+      <c r="BJ39" s="39"/>
+      <c r="BK39" s="39"/>
+      <c r="BL39" s="39"/>
+      <c r="BM39" s="39"/>
+      <c r="BN39" s="39"/>
+      <c r="BO39" s="39"/>
+      <c r="BP39" s="39"/>
+      <c r="BQ39" s="39"/>
+      <c r="BR39" s="39"/>
+      <c r="BS39" s="39"/>
+      <c r="BT39" s="39"/>
+      <c r="BU39" s="39"/>
+      <c r="BV39" s="39"/>
+      <c r="BW39" s="39"/>
+      <c r="BX39" s="39"/>
+      <c r="BY39" s="39"/>
+      <c r="BZ39" s="39"/>
+      <c r="CA39" s="39"/>
+      <c r="CB39" s="39"/>
+      <c r="CC39" s="39"/>
+      <c r="CD39" s="39"/>
+      <c r="CE39" s="39"/>
+      <c r="CF39" s="39"/>
+      <c r="CG39" s="39"/>
+      <c r="CH39" s="39"/>
+      <c r="CI39" s="39"/>
+      <c r="CJ39" s="39"/>
+      <c r="CK39" s="39"/>
+      <c r="CL39" s="39"/>
+      <c r="CM39" s="39"/>
+      <c r="CN39" s="39"/>
+      <c r="CO39" s="39"/>
+      <c r="CP39" s="39"/>
+      <c r="CQ39" s="39"/>
+      <c r="CR39" s="39"/>
+      <c r="CS39" s="39"/>
+      <c r="CT39" s="39"/>
+      <c r="CU39" s="39"/>
+      <c r="CV39" s="39"/>
+      <c r="CW39" s="39"/>
+      <c r="CX39" s="39"/>
+      <c r="CY39" s="39"/>
+      <c r="CZ39" s="39"/>
+      <c r="DA39" s="39"/>
+      <c r="DB39" s="39"/>
+      <c r="DC39" s="39"/>
+      <c r="DD39" s="39"/>
+      <c r="DE39" s="39"/>
+      <c r="DF39" s="39"/>
+      <c r="DG39" s="39"/>
+      <c r="DH39" s="39"/>
+      <c r="DI39" s="39"/>
+      <c r="DJ39" s="39"/>
+    </row>
+    <row r="40" spans="1:114" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="29">
+        <v>39</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L40" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O40" s="29">
+        <v>120</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="28"/>
+      <c r="AL40" s="28"/>
+      <c r="AM40" s="28"/>
+      <c r="AN40" s="28"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="28"/>
+      <c r="AQ40" s="28"/>
+      <c r="AR40" s="28"/>
+      <c r="AS40" s="28"/>
+      <c r="AT40" s="28"/>
+      <c r="AU40" s="28"/>
+      <c r="AV40" s="28"/>
+      <c r="AW40" s="28"/>
+      <c r="AX40" s="28"/>
+      <c r="AY40" s="28"/>
+      <c r="AZ40" s="28"/>
+      <c r="BA40" s="28"/>
+      <c r="BB40" s="28"/>
+      <c r="BC40" s="28"/>
+      <c r="BD40" s="28"/>
+      <c r="BE40" s="28"/>
+      <c r="BF40" s="28"/>
+      <c r="BG40" s="28"/>
+      <c r="BH40" s="28"/>
+      <c r="BI40" s="28"/>
+      <c r="BJ40" s="28"/>
+      <c r="BK40" s="28"/>
+      <c r="BL40" s="28"/>
+      <c r="BM40" s="28"/>
+      <c r="BN40" s="28"/>
+      <c r="BO40" s="28"/>
+      <c r="BP40" s="28"/>
+      <c r="BQ40" s="28"/>
+      <c r="BR40" s="28"/>
+      <c r="BS40" s="28"/>
+      <c r="BT40" s="28"/>
+      <c r="BU40" s="28"/>
+      <c r="BV40" s="28"/>
+      <c r="BW40" s="28"/>
+      <c r="BX40" s="28"/>
+      <c r="BY40" s="28"/>
+      <c r="BZ40" s="28"/>
+      <c r="CA40" s="28"/>
+      <c r="CB40" s="28"/>
+      <c r="CC40" s="28"/>
+      <c r="CD40" s="28"/>
+      <c r="CE40" s="28"/>
+      <c r="CF40" s="28"/>
+      <c r="CG40" s="28"/>
+      <c r="CH40" s="28"/>
+      <c r="CI40" s="28"/>
+      <c r="CJ40" s="28"/>
+      <c r="CK40" s="28"/>
+      <c r="CL40" s="28"/>
+      <c r="CM40" s="28"/>
+      <c r="CN40" s="28"/>
+      <c r="CO40" s="28"/>
+      <c r="CP40" s="28"/>
+      <c r="CQ40" s="28"/>
+      <c r="CR40" s="28"/>
+      <c r="CS40" s="28"/>
+      <c r="CT40" s="28"/>
+      <c r="CU40" s="28"/>
+      <c r="CV40" s="28"/>
+      <c r="CW40" s="28"/>
+      <c r="CX40" s="28"/>
+      <c r="CY40" s="28"/>
+      <c r="CZ40" s="28"/>
+      <c r="DA40" s="28"/>
+      <c r="DB40" s="28"/>
+      <c r="DC40" s="28"/>
+      <c r="DD40" s="28"/>
+      <c r="DE40" s="28"/>
+      <c r="DF40" s="28"/>
+      <c r="DG40" s="28"/>
+      <c r="DH40" s="28"/>
+      <c r="DI40" s="28"/>
+      <c r="DJ40" s="28"/>
+    </row>
+    <row r="41" spans="1:114" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="29">
+        <v>40</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I41" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L41" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O41" s="29">
+        <v>120</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="28"/>
+      <c r="AJ41" s="28"/>
+      <c r="AK41" s="28"/>
+      <c r="AL41" s="28"/>
+      <c r="AM41" s="28"/>
+      <c r="AN41" s="28"/>
+      <c r="AO41" s="28"/>
+      <c r="AP41" s="28"/>
+      <c r="AQ41" s="28"/>
+      <c r="AR41" s="28"/>
+      <c r="AS41" s="28"/>
+      <c r="AT41" s="28"/>
+      <c r="AU41" s="28"/>
+      <c r="AV41" s="28"/>
+      <c r="AW41" s="28"/>
+      <c r="AX41" s="28"/>
+      <c r="AY41" s="28"/>
+      <c r="AZ41" s="28"/>
+      <c r="BA41" s="28"/>
+      <c r="BB41" s="28"/>
+      <c r="BC41" s="28"/>
+      <c r="BD41" s="28"/>
+      <c r="BE41" s="28"/>
+      <c r="BF41" s="28"/>
+      <c r="BG41" s="28"/>
+      <c r="BH41" s="28"/>
+      <c r="BI41" s="28"/>
+      <c r="BJ41" s="28"/>
+      <c r="BK41" s="28"/>
+      <c r="BL41" s="28"/>
+      <c r="BM41" s="28"/>
+      <c r="BN41" s="28"/>
+      <c r="BO41" s="28"/>
+      <c r="BP41" s="28"/>
+      <c r="BQ41" s="28"/>
+      <c r="BR41" s="28"/>
+      <c r="BS41" s="28"/>
+      <c r="BT41" s="28"/>
+      <c r="BU41" s="28"/>
+      <c r="BV41" s="28"/>
+      <c r="BW41" s="28"/>
+      <c r="BX41" s="28"/>
+      <c r="BY41" s="28"/>
+      <c r="BZ41" s="28"/>
+      <c r="CA41" s="28"/>
+      <c r="CB41" s="28"/>
+      <c r="CC41" s="28"/>
+      <c r="CD41" s="28"/>
+      <c r="CE41" s="28"/>
+      <c r="CF41" s="28"/>
+      <c r="CG41" s="28"/>
+      <c r="CH41" s="28"/>
+      <c r="CI41" s="28"/>
+      <c r="CJ41" s="28"/>
+      <c r="CK41" s="28"/>
+      <c r="CL41" s="28"/>
+      <c r="CM41" s="28"/>
+      <c r="CN41" s="28"/>
+      <c r="CO41" s="28"/>
+      <c r="CP41" s="28"/>
+      <c r="CQ41" s="28"/>
+      <c r="CR41" s="28"/>
+      <c r="CS41" s="28"/>
+      <c r="CT41" s="28"/>
+      <c r="CU41" s="28"/>
+      <c r="CV41" s="28"/>
+      <c r="CW41" s="28"/>
+      <c r="CX41" s="28"/>
+      <c r="CY41" s="28"/>
+      <c r="CZ41" s="28"/>
+      <c r="DA41" s="28"/>
+      <c r="DB41" s="28"/>
+      <c r="DC41" s="28"/>
+      <c r="DD41" s="28"/>
+      <c r="DE41" s="28"/>
+      <c r="DF41" s="28"/>
+      <c r="DG41" s="28"/>
+      <c r="DH41" s="28"/>
+      <c r="DI41" s="28"/>
+      <c r="DJ41" s="28"/>
+    </row>
+    <row r="42" spans="1:114" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="29">
+        <v>41</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L42" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N42" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O42" s="29">
+        <v>120</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="28"/>
+      <c r="AI42" s="28"/>
+      <c r="AJ42" s="28"/>
+      <c r="AK42" s="28"/>
+      <c r="AL42" s="28"/>
+      <c r="AM42" s="28"/>
+      <c r="AN42" s="28"/>
+      <c r="AO42" s="28"/>
+      <c r="AP42" s="28"/>
+      <c r="AQ42" s="28"/>
+      <c r="AR42" s="28"/>
+      <c r="AS42" s="28"/>
+      <c r="AT42" s="28"/>
+      <c r="AU42" s="28"/>
+      <c r="AV42" s="28"/>
+      <c r="AW42" s="28"/>
+      <c r="AX42" s="28"/>
+      <c r="AY42" s="28"/>
+      <c r="AZ42" s="28"/>
+      <c r="BA42" s="28"/>
+      <c r="BB42" s="28"/>
+      <c r="BC42" s="28"/>
+      <c r="BD42" s="28"/>
+      <c r="BE42" s="28"/>
+      <c r="BF42" s="28"/>
+      <c r="BG42" s="28"/>
+      <c r="BH42" s="28"/>
+      <c r="BI42" s="28"/>
+      <c r="BJ42" s="28"/>
+      <c r="BK42" s="28"/>
+      <c r="BL42" s="28"/>
+      <c r="BM42" s="28"/>
+      <c r="BN42" s="28"/>
+      <c r="BO42" s="28"/>
+      <c r="BP42" s="28"/>
+      <c r="BQ42" s="28"/>
+      <c r="BR42" s="28"/>
+      <c r="BS42" s="28"/>
+      <c r="BT42" s="28"/>
+      <c r="BU42" s="28"/>
+      <c r="BV42" s="28"/>
+      <c r="BW42" s="28"/>
+      <c r="BX42" s="28"/>
+      <c r="BY42" s="28"/>
+      <c r="BZ42" s="28"/>
+      <c r="CA42" s="28"/>
+      <c r="CB42" s="28"/>
+      <c r="CC42" s="28"/>
+      <c r="CD42" s="28"/>
+      <c r="CE42" s="28"/>
+      <c r="CF42" s="28"/>
+      <c r="CG42" s="28"/>
+      <c r="CH42" s="28"/>
+      <c r="CI42" s="28"/>
+      <c r="CJ42" s="28"/>
+      <c r="CK42" s="28"/>
+      <c r="CL42" s="28"/>
+      <c r="CM42" s="28"/>
+      <c r="CN42" s="28"/>
+      <c r="CO42" s="28"/>
+      <c r="CP42" s="28"/>
+      <c r="CQ42" s="28"/>
+      <c r="CR42" s="28"/>
+      <c r="CS42" s="28"/>
+      <c r="CT42" s="28"/>
+      <c r="CU42" s="28"/>
+      <c r="CV42" s="28"/>
+      <c r="CW42" s="28"/>
+      <c r="CX42" s="28"/>
+      <c r="CY42" s="28"/>
+      <c r="CZ42" s="28"/>
+      <c r="DA42" s="28"/>
+      <c r="DB42" s="28"/>
+      <c r="DC42" s="28"/>
+      <c r="DD42" s="28"/>
+      <c r="DE42" s="28"/>
+      <c r="DF42" s="28"/>
+      <c r="DG42" s="28"/>
+      <c r="DH42" s="28"/>
+      <c r="DI42" s="28"/>
+      <c r="DJ42" s="28"/>
+    </row>
+    <row r="43" spans="1:114" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="29">
+        <v>42</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J43" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L43" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="N43" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O43" s="29">
+        <v>23</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="28"/>
+      <c r="AG43" s="28"/>
+      <c r="AH43" s="28"/>
+      <c r="AI43" s="28"/>
+      <c r="AJ43" s="28"/>
+      <c r="AK43" s="28"/>
+      <c r="AL43" s="28"/>
+      <c r="AM43" s="28"/>
+      <c r="AN43" s="28"/>
+      <c r="AO43" s="28"/>
+      <c r="AP43" s="28"/>
+      <c r="AQ43" s="28"/>
+      <c r="AR43" s="28"/>
+      <c r="AS43" s="28"/>
+      <c r="AT43" s="28"/>
+      <c r="AU43" s="28"/>
+      <c r="AV43" s="28"/>
+      <c r="AW43" s="28"/>
+      <c r="AX43" s="28"/>
+      <c r="AY43" s="28"/>
+      <c r="AZ43" s="28"/>
+      <c r="BA43" s="28"/>
+      <c r="BB43" s="28"/>
+      <c r="BC43" s="28"/>
+      <c r="BD43" s="28"/>
+      <c r="BE43" s="28"/>
+      <c r="BF43" s="28"/>
+      <c r="BG43" s="28"/>
+      <c r="BH43" s="28"/>
+      <c r="BI43" s="28"/>
+      <c r="BJ43" s="28"/>
+      <c r="BK43" s="28"/>
+      <c r="BL43" s="28"/>
+      <c r="BM43" s="28"/>
+      <c r="BN43" s="28"/>
+      <c r="BO43" s="28"/>
+      <c r="BP43" s="28"/>
+      <c r="BQ43" s="28"/>
+      <c r="BR43" s="28"/>
+      <c r="BS43" s="28"/>
+      <c r="BT43" s="28"/>
+      <c r="BU43" s="28"/>
+      <c r="BV43" s="28"/>
+      <c r="BW43" s="28"/>
+      <c r="BX43" s="28"/>
+      <c r="BY43" s="28"/>
+      <c r="BZ43" s="28"/>
+      <c r="CA43" s="28"/>
+      <c r="CB43" s="28"/>
+      <c r="CC43" s="28"/>
+      <c r="CD43" s="28"/>
+      <c r="CE43" s="28"/>
+      <c r="CF43" s="28"/>
+      <c r="CG43" s="28"/>
+      <c r="CH43" s="28"/>
+      <c r="CI43" s="28"/>
+      <c r="CJ43" s="28"/>
+      <c r="CK43" s="28"/>
+      <c r="CL43" s="28"/>
+      <c r="CM43" s="28"/>
+      <c r="CN43" s="28"/>
+      <c r="CO43" s="28"/>
+      <c r="CP43" s="28"/>
+      <c r="CQ43" s="28"/>
+      <c r="CR43" s="28"/>
+      <c r="CS43" s="28"/>
+      <c r="CT43" s="28"/>
+      <c r="CU43" s="28"/>
+      <c r="CV43" s="28"/>
+      <c r="CW43" s="28"/>
+      <c r="CX43" s="28"/>
+      <c r="CY43" s="28"/>
+      <c r="CZ43" s="28"/>
+      <c r="DA43" s="28"/>
+      <c r="DB43" s="28"/>
+      <c r="DC43" s="28"/>
+      <c r="DD43" s="28"/>
+      <c r="DE43" s="28"/>
+      <c r="DF43" s="28"/>
+      <c r="DG43" s="28"/>
+      <c r="DH43" s="28"/>
+      <c r="DI43" s="28"/>
+      <c r="DJ43" s="28"/>
+    </row>
+    <row r="44" spans="1:114" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="29">
+        <v>43</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L44" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="N44" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O44" s="29">
+        <v>23</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="28"/>
+      <c r="AG44" s="28"/>
+      <c r="AH44" s="28"/>
+      <c r="AI44" s="28"/>
+      <c r="AJ44" s="28"/>
+      <c r="AK44" s="28"/>
+      <c r="AL44" s="28"/>
+      <c r="AM44" s="28"/>
+      <c r="AN44" s="28"/>
+      <c r="AO44" s="28"/>
+      <c r="AP44" s="28"/>
+      <c r="AQ44" s="28"/>
+      <c r="AR44" s="28"/>
+      <c r="AS44" s="28"/>
+      <c r="AT44" s="28"/>
+      <c r="AU44" s="28"/>
+      <c r="AV44" s="28"/>
+      <c r="AW44" s="28"/>
+      <c r="AX44" s="28"/>
+      <c r="AY44" s="28"/>
+      <c r="AZ44" s="28"/>
+      <c r="BA44" s="28"/>
+      <c r="BB44" s="28"/>
+      <c r="BC44" s="28"/>
+      <c r="BD44" s="28"/>
+      <c r="BE44" s="28"/>
+      <c r="BF44" s="28"/>
+      <c r="BG44" s="28"/>
+      <c r="BH44" s="28"/>
+      <c r="BI44" s="28"/>
+      <c r="BJ44" s="28"/>
+      <c r="BK44" s="28"/>
+      <c r="BL44" s="28"/>
+      <c r="BM44" s="28"/>
+      <c r="BN44" s="28"/>
+      <c r="BO44" s="28"/>
+      <c r="BP44" s="28"/>
+      <c r="BQ44" s="28"/>
+      <c r="BR44" s="28"/>
+      <c r="BS44" s="28"/>
+      <c r="BT44" s="28"/>
+      <c r="BU44" s="28"/>
+      <c r="BV44" s="28"/>
+      <c r="BW44" s="28"/>
+      <c r="BX44" s="28"/>
+      <c r="BY44" s="28"/>
+      <c r="BZ44" s="28"/>
+      <c r="CA44" s="28"/>
+      <c r="CB44" s="28"/>
+      <c r="CC44" s="28"/>
+      <c r="CD44" s="28"/>
+      <c r="CE44" s="28"/>
+      <c r="CF44" s="28"/>
+      <c r="CG44" s="28"/>
+      <c r="CH44" s="28"/>
+      <c r="CI44" s="28"/>
+      <c r="CJ44" s="28"/>
+      <c r="CK44" s="28"/>
+      <c r="CL44" s="28"/>
+      <c r="CM44" s="28"/>
+      <c r="CN44" s="28"/>
+      <c r="CO44" s="28"/>
+      <c r="CP44" s="28"/>
+      <c r="CQ44" s="28"/>
+      <c r="CR44" s="28"/>
+      <c r="CS44" s="28"/>
+      <c r="CT44" s="28"/>
+      <c r="CU44" s="28"/>
+      <c r="CV44" s="28"/>
+      <c r="CW44" s="28"/>
+      <c r="CX44" s="28"/>
+      <c r="CY44" s="28"/>
+      <c r="CZ44" s="28"/>
+      <c r="DA44" s="28"/>
+      <c r="DB44" s="28"/>
+      <c r="DC44" s="28"/>
+      <c r="DD44" s="28"/>
+      <c r="DE44" s="28"/>
+      <c r="DF44" s="28"/>
+      <c r="DG44" s="28"/>
+      <c r="DH44" s="28"/>
+      <c r="DI44" s="28"/>
+      <c r="DJ44" s="28"/>
+    </row>
+    <row r="45" spans="1:114" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="29">
+        <v>44</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J45" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L45" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="M45" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="N45" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O45" s="29">
+        <v>23</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="28"/>
+      <c r="AG45" s="28"/>
+      <c r="AH45" s="28"/>
+      <c r="AI45" s="28"/>
+      <c r="AJ45" s="28"/>
+      <c r="AK45" s="28"/>
+      <c r="AL45" s="28"/>
+      <c r="AM45" s="28"/>
+      <c r="AN45" s="28"/>
+      <c r="AO45" s="28"/>
+      <c r="AP45" s="28"/>
+      <c r="AQ45" s="28"/>
+      <c r="AR45" s="28"/>
+      <c r="AS45" s="28"/>
+      <c r="AT45" s="28"/>
+      <c r="AU45" s="28"/>
+      <c r="AV45" s="28"/>
+      <c r="AW45" s="28"/>
+      <c r="AX45" s="28"/>
+      <c r="AY45" s="28"/>
+      <c r="AZ45" s="28"/>
+      <c r="BA45" s="28"/>
+      <c r="BB45" s="28"/>
+      <c r="BC45" s="28"/>
+      <c r="BD45" s="28"/>
+      <c r="BE45" s="28"/>
+      <c r="BF45" s="28"/>
+      <c r="BG45" s="28"/>
+      <c r="BH45" s="28"/>
+      <c r="BI45" s="28"/>
+      <c r="BJ45" s="28"/>
+      <c r="BK45" s="28"/>
+      <c r="BL45" s="28"/>
+      <c r="BM45" s="28"/>
+      <c r="BN45" s="28"/>
+      <c r="BO45" s="28"/>
+      <c r="BP45" s="28"/>
+      <c r="BQ45" s="28"/>
+      <c r="BR45" s="28"/>
+      <c r="BS45" s="28"/>
+      <c r="BT45" s="28"/>
+      <c r="BU45" s="28"/>
+      <c r="BV45" s="28"/>
+      <c r="BW45" s="28"/>
+      <c r="BX45" s="28"/>
+      <c r="BY45" s="28"/>
+      <c r="BZ45" s="28"/>
+      <c r="CA45" s="28"/>
+      <c r="CB45" s="28"/>
+      <c r="CC45" s="28"/>
+      <c r="CD45" s="28"/>
+      <c r="CE45" s="28"/>
+      <c r="CF45" s="28"/>
+      <c r="CG45" s="28"/>
+      <c r="CH45" s="28"/>
+      <c r="CI45" s="28"/>
+      <c r="CJ45" s="28"/>
+      <c r="CK45" s="28"/>
+      <c r="CL45" s="28"/>
+      <c r="CM45" s="28"/>
+      <c r="CN45" s="28"/>
+      <c r="CO45" s="28"/>
+      <c r="CP45" s="28"/>
+      <c r="CQ45" s="28"/>
+      <c r="CR45" s="28"/>
+      <c r="CS45" s="28"/>
+      <c r="CT45" s="28"/>
+      <c r="CU45" s="28"/>
+      <c r="CV45" s="28"/>
+      <c r="CW45" s="28"/>
+      <c r="CX45" s="28"/>
+      <c r="CY45" s="28"/>
+      <c r="CZ45" s="28"/>
+      <c r="DA45" s="28"/>
+      <c r="DB45" s="28"/>
+      <c r="DC45" s="28"/>
+      <c r="DD45" s="28"/>
+      <c r="DE45" s="28"/>
+      <c r="DF45" s="28"/>
+      <c r="DG45" s="28"/>
+      <c r="DH45" s="28"/>
+      <c r="DI45" s="28"/>
+      <c r="DJ45" s="28"/>
+    </row>
+    <row r="46" spans="1:114" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="29">
+        <v>45</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J46" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L46" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="M46" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="N46" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O46" s="29">
+        <v>12</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="28"/>
+      <c r="AG46" s="28"/>
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="28"/>
+      <c r="AJ46" s="28"/>
+      <c r="AK46" s="28"/>
+      <c r="AL46" s="28"/>
+      <c r="AM46" s="28"/>
+      <c r="AN46" s="28"/>
+      <c r="AO46" s="28"/>
+      <c r="AP46" s="28"/>
+      <c r="AQ46" s="28"/>
+      <c r="AR46" s="28"/>
+      <c r="AS46" s="28"/>
+      <c r="AT46" s="28"/>
+      <c r="AU46" s="28"/>
+      <c r="AV46" s="28"/>
+      <c r="AW46" s="28"/>
+      <c r="AX46" s="28"/>
+      <c r="AY46" s="28"/>
+      <c r="AZ46" s="28"/>
+      <c r="BA46" s="28"/>
+      <c r="BB46" s="28"/>
+      <c r="BC46" s="28"/>
+      <c r="BD46" s="28"/>
+      <c r="BE46" s="28"/>
+      <c r="BF46" s="28"/>
+      <c r="BG46" s="28"/>
+      <c r="BH46" s="28"/>
+      <c r="BI46" s="28"/>
+      <c r="BJ46" s="28"/>
+      <c r="BK46" s="28"/>
+      <c r="BL46" s="28"/>
+      <c r="BM46" s="28"/>
+      <c r="BN46" s="28"/>
+      <c r="BO46" s="28"/>
+      <c r="BP46" s="28"/>
+      <c r="BQ46" s="28"/>
+      <c r="BR46" s="28"/>
+      <c r="BS46" s="28"/>
+      <c r="BT46" s="28"/>
+      <c r="BU46" s="28"/>
+      <c r="BV46" s="28"/>
+      <c r="BW46" s="28"/>
+      <c r="BX46" s="28"/>
+      <c r="BY46" s="28"/>
+      <c r="BZ46" s="28"/>
+      <c r="CA46" s="28"/>
+      <c r="CB46" s="28"/>
+      <c r="CC46" s="28"/>
+      <c r="CD46" s="28"/>
+      <c r="CE46" s="28"/>
+      <c r="CF46" s="28"/>
+      <c r="CG46" s="28"/>
+      <c r="CH46" s="28"/>
+      <c r="CI46" s="28"/>
+      <c r="CJ46" s="28"/>
+      <c r="CK46" s="28"/>
+      <c r="CL46" s="28"/>
+      <c r="CM46" s="28"/>
+      <c r="CN46" s="28"/>
+      <c r="CO46" s="28"/>
+      <c r="CP46" s="28"/>
+      <c r="CQ46" s="28"/>
+      <c r="CR46" s="28"/>
+      <c r="CS46" s="28"/>
+      <c r="CT46" s="28"/>
+      <c r="CU46" s="28"/>
+      <c r="CV46" s="28"/>
+      <c r="CW46" s="28"/>
+      <c r="CX46" s="28"/>
+      <c r="CY46" s="28"/>
+      <c r="CZ46" s="28"/>
+      <c r="DA46" s="28"/>
+      <c r="DB46" s="28"/>
+      <c r="DC46" s="28"/>
+      <c r="DD46" s="28"/>
+      <c r="DE46" s="28"/>
+      <c r="DF46" s="28"/>
+      <c r="DG46" s="28"/>
+      <c r="DH46" s="28"/>
+      <c r="DI46" s="28"/>
+      <c r="DJ46" s="28"/>
+    </row>
+    <row r="47" spans="1:114" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="29">
+        <v>46</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L47" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="N47" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O47" s="29">
+        <v>12</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28"/>
+      <c r="AE47" s="28"/>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="28"/>
+      <c r="AH47" s="28"/>
+      <c r="AI47" s="28"/>
+      <c r="AJ47" s="28"/>
+      <c r="AK47" s="28"/>
+      <c r="AL47" s="28"/>
+      <c r="AM47" s="28"/>
+      <c r="AN47" s="28"/>
+      <c r="AO47" s="28"/>
+      <c r="AP47" s="28"/>
+      <c r="AQ47" s="28"/>
+      <c r="AR47" s="28"/>
+      <c r="AS47" s="28"/>
+      <c r="AT47" s="28"/>
+      <c r="AU47" s="28"/>
+      <c r="AV47" s="28"/>
+      <c r="AW47" s="28"/>
+      <c r="AX47" s="28"/>
+      <c r="AY47" s="28"/>
+      <c r="AZ47" s="28"/>
+      <c r="BA47" s="28"/>
+      <c r="BB47" s="28"/>
+      <c r="BC47" s="28"/>
+      <c r="BD47" s="28"/>
+      <c r="BE47" s="28"/>
+      <c r="BF47" s="28"/>
+      <c r="BG47" s="28"/>
+      <c r="BH47" s="28"/>
+      <c r="BI47" s="28"/>
+      <c r="BJ47" s="28"/>
+      <c r="BK47" s="28"/>
+      <c r="BL47" s="28"/>
+      <c r="BM47" s="28"/>
+      <c r="BN47" s="28"/>
+      <c r="BO47" s="28"/>
+      <c r="BP47" s="28"/>
+      <c r="BQ47" s="28"/>
+      <c r="BR47" s="28"/>
+      <c r="BS47" s="28"/>
+      <c r="BT47" s="28"/>
+      <c r="BU47" s="28"/>
+      <c r="BV47" s="28"/>
+      <c r="BW47" s="28"/>
+      <c r="BX47" s="28"/>
+      <c r="BY47" s="28"/>
+      <c r="BZ47" s="28"/>
+      <c r="CA47" s="28"/>
+      <c r="CB47" s="28"/>
+      <c r="CC47" s="28"/>
+      <c r="CD47" s="28"/>
+      <c r="CE47" s="28"/>
+      <c r="CF47" s="28"/>
+      <c r="CG47" s="28"/>
+      <c r="CH47" s="28"/>
+      <c r="CI47" s="28"/>
+      <c r="CJ47" s="28"/>
+      <c r="CK47" s="28"/>
+      <c r="CL47" s="28"/>
+      <c r="CM47" s="28"/>
+      <c r="CN47" s="28"/>
+      <c r="CO47" s="28"/>
+      <c r="CP47" s="28"/>
+      <c r="CQ47" s="28"/>
+      <c r="CR47" s="28"/>
+      <c r="CS47" s="28"/>
+      <c r="CT47" s="28"/>
+      <c r="CU47" s="28"/>
+      <c r="CV47" s="28"/>
+      <c r="CW47" s="28"/>
+      <c r="CX47" s="28"/>
+      <c r="CY47" s="28"/>
+      <c r="CZ47" s="28"/>
+      <c r="DA47" s="28"/>
+      <c r="DB47" s="28"/>
+      <c r="DC47" s="28"/>
+      <c r="DD47" s="28"/>
+      <c r="DE47" s="28"/>
+      <c r="DF47" s="28"/>
+      <c r="DG47" s="28"/>
+      <c r="DH47" s="28"/>
+      <c r="DI47" s="28"/>
+      <c r="DJ47" s="28"/>
+    </row>
+    <row r="48" spans="1:114" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="29">
+        <v>47</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J48" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L48" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="N48" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O48" s="29">
+        <v>12</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
+      <c r="AF48" s="28"/>
+      <c r="AG48" s="28"/>
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="28"/>
+      <c r="AJ48" s="28"/>
+      <c r="AK48" s="28"/>
+      <c r="AL48" s="28"/>
+      <c r="AM48" s="28"/>
+      <c r="AN48" s="28"/>
+      <c r="AO48" s="28"/>
+      <c r="AP48" s="28"/>
+      <c r="AQ48" s="28"/>
+      <c r="AR48" s="28"/>
+      <c r="AS48" s="28"/>
+      <c r="AT48" s="28"/>
+      <c r="AU48" s="28"/>
+      <c r="AV48" s="28"/>
+      <c r="AW48" s="28"/>
+      <c r="AX48" s="28"/>
+      <c r="AY48" s="28"/>
+      <c r="AZ48" s="28"/>
+      <c r="BA48" s="28"/>
+      <c r="BB48" s="28"/>
+      <c r="BC48" s="28"/>
+      <c r="BD48" s="28"/>
+      <c r="BE48" s="28"/>
+      <c r="BF48" s="28"/>
+      <c r="BG48" s="28"/>
+      <c r="BH48" s="28"/>
+      <c r="BI48" s="28"/>
+      <c r="BJ48" s="28"/>
+      <c r="BK48" s="28"/>
+      <c r="BL48" s="28"/>
+      <c r="BM48" s="28"/>
+      <c r="BN48" s="28"/>
+      <c r="BO48" s="28"/>
+      <c r="BP48" s="28"/>
+      <c r="BQ48" s="28"/>
+      <c r="BR48" s="28"/>
+      <c r="BS48" s="28"/>
+      <c r="BT48" s="28"/>
+      <c r="BU48" s="28"/>
+      <c r="BV48" s="28"/>
+      <c r="BW48" s="28"/>
+      <c r="BX48" s="28"/>
+      <c r="BY48" s="28"/>
+      <c r="BZ48" s="28"/>
+      <c r="CA48" s="28"/>
+      <c r="CB48" s="28"/>
+      <c r="CC48" s="28"/>
+      <c r="CD48" s="28"/>
+      <c r="CE48" s="28"/>
+      <c r="CF48" s="28"/>
+      <c r="CG48" s="28"/>
+      <c r="CH48" s="28"/>
+      <c r="CI48" s="28"/>
+      <c r="CJ48" s="28"/>
+      <c r="CK48" s="28"/>
+      <c r="CL48" s="28"/>
+      <c r="CM48" s="28"/>
+      <c r="CN48" s="28"/>
+      <c r="CO48" s="28"/>
+      <c r="CP48" s="28"/>
+      <c r="CQ48" s="28"/>
+      <c r="CR48" s="28"/>
+      <c r="CS48" s="28"/>
+      <c r="CT48" s="28"/>
+      <c r="CU48" s="28"/>
+      <c r="CV48" s="28"/>
+      <c r="CW48" s="28"/>
+      <c r="CX48" s="28"/>
+      <c r="CY48" s="28"/>
+      <c r="CZ48" s="28"/>
+      <c r="DA48" s="28"/>
+      <c r="DB48" s="28"/>
+      <c r="DC48" s="28"/>
+      <c r="DD48" s="28"/>
+      <c r="DE48" s="28"/>
+      <c r="DF48" s="28"/>
+      <c r="DG48" s="28"/>
+      <c r="DH48" s="28"/>
+      <c r="DI48" s="28"/>
+      <c r="DJ48" s="28"/>
+    </row>
+    <row r="49" spans="1:114" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="29">
+        <v>48</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L49" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="37"/>
+      <c r="AA49" s="37"/>
+      <c r="AB49" s="37"/>
+      <c r="AC49" s="37"/>
+      <c r="AD49" s="37"/>
+      <c r="AE49" s="37"/>
+      <c r="AF49" s="37"/>
+      <c r="AG49" s="37"/>
+      <c r="AH49" s="37"/>
+      <c r="AI49" s="37"/>
+      <c r="AJ49" s="37"/>
+      <c r="AK49" s="37"/>
+      <c r="AL49" s="37"/>
+      <c r="AM49" s="37"/>
+      <c r="AN49" s="37"/>
+      <c r="AO49" s="37"/>
+      <c r="AP49" s="37"/>
+      <c r="AQ49" s="37"/>
+      <c r="AR49" s="37"/>
+      <c r="AS49" s="37"/>
+      <c r="AT49" s="37"/>
+      <c r="AU49" s="37"/>
+      <c r="AV49" s="37"/>
+      <c r="AW49" s="37"/>
+      <c r="AX49" s="37"/>
+      <c r="AY49" s="37"/>
+      <c r="AZ49" s="37"/>
+      <c r="BA49" s="37"/>
+      <c r="BB49" s="37"/>
+      <c r="BC49" s="37"/>
+      <c r="BD49" s="37"/>
+      <c r="BE49" s="37"/>
+      <c r="BF49" s="37"/>
+      <c r="BG49" s="37"/>
+      <c r="BH49" s="37"/>
+      <c r="BI49" s="37"/>
+      <c r="BJ49" s="37"/>
+      <c r="BK49" s="37"/>
+      <c r="BL49" s="37"/>
+      <c r="BM49" s="37"/>
+      <c r="BN49" s="37"/>
+      <c r="BO49" s="37"/>
+      <c r="BP49" s="37"/>
+      <c r="BQ49" s="37"/>
+      <c r="BR49" s="37"/>
+      <c r="BS49" s="37"/>
+      <c r="BT49" s="37"/>
+      <c r="BU49" s="37"/>
+      <c r="BV49" s="37"/>
+      <c r="BW49" s="37"/>
+      <c r="BX49" s="37"/>
+      <c r="BY49" s="37"/>
+      <c r="BZ49" s="37"/>
+      <c r="CA49" s="37"/>
+      <c r="CB49" s="37"/>
+      <c r="CC49" s="37"/>
+      <c r="CD49" s="37"/>
+      <c r="CE49" s="37"/>
+      <c r="CF49" s="37"/>
+      <c r="CG49" s="37"/>
+      <c r="CH49" s="37"/>
+      <c r="CI49" s="37"/>
+      <c r="CJ49" s="37"/>
+      <c r="CK49" s="37"/>
+      <c r="CL49" s="37"/>
+      <c r="CM49" s="37"/>
+      <c r="CN49" s="37"/>
+      <c r="CO49" s="37"/>
+      <c r="CP49" s="37"/>
+      <c r="CQ49" s="37"/>
+      <c r="CR49" s="37"/>
+      <c r="CS49" s="37"/>
+      <c r="CT49" s="37"/>
+      <c r="CU49" s="37"/>
+      <c r="CV49" s="37"/>
+      <c r="CW49" s="37"/>
+      <c r="CX49" s="37"/>
+      <c r="CY49" s="37"/>
+      <c r="CZ49" s="37"/>
+      <c r="DA49" s="37"/>
+      <c r="DB49" s="37"/>
+      <c r="DC49" s="37"/>
+      <c r="DD49" s="37"/>
+      <c r="DE49" s="37"/>
+      <c r="DF49" s="37"/>
+      <c r="DG49" s="37"/>
+      <c r="DH49" s="37"/>
+      <c r="DI49" s="37"/>
+      <c r="DJ49" s="37"/>
+    </row>
+    <row r="50" spans="1:114" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="29">
+        <v>49</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L50" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="M50" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="N50" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="O50" s="29">
+        <v>8</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
+      <c r="AA50" s="37"/>
+      <c r="AB50" s="37"/>
+      <c r="AC50" s="37"/>
+      <c r="AD50" s="37"/>
+      <c r="AE50" s="37"/>
+      <c r="AF50" s="37"/>
+      <c r="AG50" s="37"/>
+      <c r="AH50" s="37"/>
+      <c r="AI50" s="37"/>
+      <c r="AJ50" s="37"/>
+      <c r="AK50" s="37"/>
+      <c r="AL50" s="37"/>
+      <c r="AM50" s="37"/>
+      <c r="AN50" s="37"/>
+      <c r="AO50" s="37"/>
+      <c r="AP50" s="37"/>
+      <c r="AQ50" s="37"/>
+      <c r="AR50" s="37"/>
+      <c r="AS50" s="37"/>
+      <c r="AT50" s="37"/>
+      <c r="AU50" s="37"/>
+      <c r="AV50" s="37"/>
+      <c r="AW50" s="37"/>
+      <c r="AX50" s="37"/>
+      <c r="AY50" s="37"/>
+      <c r="AZ50" s="37"/>
+      <c r="BA50" s="37"/>
+      <c r="BB50" s="37"/>
+      <c r="BC50" s="37"/>
+      <c r="BD50" s="37"/>
+      <c r="BE50" s="37"/>
+      <c r="BF50" s="37"/>
+      <c r="BG50" s="37"/>
+      <c r="BH50" s="37"/>
+      <c r="BI50" s="37"/>
+      <c r="BJ50" s="37"/>
+      <c r="BK50" s="37"/>
+      <c r="BL50" s="37"/>
+      <c r="BM50" s="37"/>
+      <c r="BN50" s="37"/>
+      <c r="BO50" s="37"/>
+      <c r="BP50" s="37"/>
+      <c r="BQ50" s="37"/>
+      <c r="BR50" s="37"/>
+      <c r="BS50" s="37"/>
+      <c r="BT50" s="37"/>
+      <c r="BU50" s="37"/>
+      <c r="BV50" s="37"/>
+      <c r="BW50" s="37"/>
+      <c r="BX50" s="37"/>
+      <c r="BY50" s="37"/>
+      <c r="BZ50" s="37"/>
+      <c r="CA50" s="37"/>
+      <c r="CB50" s="37"/>
+      <c r="CC50" s="37"/>
+      <c r="CD50" s="37"/>
+      <c r="CE50" s="37"/>
+      <c r="CF50" s="37"/>
+      <c r="CG50" s="37"/>
+      <c r="CH50" s="37"/>
+      <c r="CI50" s="37"/>
+      <c r="CJ50" s="37"/>
+      <c r="CK50" s="37"/>
+      <c r="CL50" s="37"/>
+      <c r="CM50" s="37"/>
+      <c r="CN50" s="37"/>
+      <c r="CO50" s="37"/>
+      <c r="CP50" s="37"/>
+      <c r="CQ50" s="37"/>
+      <c r="CR50" s="37"/>
+      <c r="CS50" s="37"/>
+      <c r="CT50" s="37"/>
+      <c r="CU50" s="37"/>
+      <c r="CV50" s="37"/>
+      <c r="CW50" s="37"/>
+      <c r="CX50" s="37"/>
+      <c r="CY50" s="37"/>
+      <c r="CZ50" s="37"/>
+      <c r="DA50" s="37"/>
+      <c r="DB50" s="37"/>
+      <c r="DC50" s="37"/>
+      <c r="DD50" s="37"/>
+      <c r="DE50" s="37"/>
+      <c r="DF50" s="37"/>
+      <c r="DG50" s="37"/>
+      <c r="DH50" s="37"/>
+      <c r="DI50" s="37"/>
+      <c r="DJ50" s="37"/>
+    </row>
+    <row r="51" spans="1:114" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="29">
+        <v>50</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L51" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="N51" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="O51" s="29">
+        <v>8</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="37"/>
+      <c r="AA51" s="37"/>
+      <c r="AB51" s="37"/>
+      <c r="AC51" s="37"/>
+      <c r="AD51" s="37"/>
+      <c r="AE51" s="37"/>
+      <c r="AF51" s="37"/>
+      <c r="AG51" s="37"/>
+      <c r="AH51" s="37"/>
+      <c r="AI51" s="37"/>
+      <c r="AJ51" s="37"/>
+      <c r="AK51" s="37"/>
+      <c r="AL51" s="37"/>
+      <c r="AM51" s="37"/>
+      <c r="AN51" s="37"/>
+      <c r="AO51" s="37"/>
+      <c r="AP51" s="37"/>
+      <c r="AQ51" s="37"/>
+      <c r="AR51" s="37"/>
+      <c r="AS51" s="37"/>
+      <c r="AT51" s="37"/>
+      <c r="AU51" s="37"/>
+      <c r="AV51" s="37"/>
+      <c r="AW51" s="37"/>
+      <c r="AX51" s="37"/>
+      <c r="AY51" s="37"/>
+      <c r="AZ51" s="37"/>
+      <c r="BA51" s="37"/>
+      <c r="BB51" s="37"/>
+      <c r="BC51" s="37"/>
+      <c r="BD51" s="37"/>
+      <c r="BE51" s="37"/>
+      <c r="BF51" s="37"/>
+      <c r="BG51" s="37"/>
+      <c r="BH51" s="37"/>
+      <c r="BI51" s="37"/>
+      <c r="BJ51" s="37"/>
+      <c r="BK51" s="37"/>
+      <c r="BL51" s="37"/>
+      <c r="BM51" s="37"/>
+      <c r="BN51" s="37"/>
+      <c r="BO51" s="37"/>
+      <c r="BP51" s="37"/>
+      <c r="BQ51" s="37"/>
+      <c r="BR51" s="37"/>
+      <c r="BS51" s="37"/>
+      <c r="BT51" s="37"/>
+      <c r="BU51" s="37"/>
+      <c r="BV51" s="37"/>
+      <c r="BW51" s="37"/>
+      <c r="BX51" s="37"/>
+      <c r="BY51" s="37"/>
+      <c r="BZ51" s="37"/>
+      <c r="CA51" s="37"/>
+      <c r="CB51" s="37"/>
+      <c r="CC51" s="37"/>
+      <c r="CD51" s="37"/>
+      <c r="CE51" s="37"/>
+      <c r="CF51" s="37"/>
+      <c r="CG51" s="37"/>
+      <c r="CH51" s="37"/>
+      <c r="CI51" s="37"/>
+      <c r="CJ51" s="37"/>
+      <c r="CK51" s="37"/>
+      <c r="CL51" s="37"/>
+      <c r="CM51" s="37"/>
+      <c r="CN51" s="37"/>
+      <c r="CO51" s="37"/>
+      <c r="CP51" s="37"/>
+      <c r="CQ51" s="37"/>
+      <c r="CR51" s="37"/>
+      <c r="CS51" s="37"/>
+      <c r="CT51" s="37"/>
+      <c r="CU51" s="37"/>
+      <c r="CV51" s="37"/>
+      <c r="CW51" s="37"/>
+      <c r="CX51" s="37"/>
+      <c r="CY51" s="37"/>
+      <c r="CZ51" s="37"/>
+      <c r="DA51" s="37"/>
+      <c r="DB51" s="37"/>
+      <c r="DC51" s="37"/>
+      <c r="DD51" s="37"/>
+      <c r="DE51" s="37"/>
+      <c r="DF51" s="37"/>
+      <c r="DG51" s="37"/>
+      <c r="DH51" s="37"/>
+      <c r="DI51" s="37"/>
+      <c r="DJ51" s="37"/>
+    </row>
+    <row r="52" spans="1:114" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="29">
+        <v>51</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J52" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L52" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="M52" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="N52" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="O52" s="29">
+        <v>8</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="37"/>
+      <c r="AA52" s="37"/>
+      <c r="AB52" s="37"/>
+      <c r="AC52" s="37"/>
+      <c r="AD52" s="37"/>
+      <c r="AE52" s="37"/>
+      <c r="AF52" s="37"/>
+      <c r="AG52" s="37"/>
+      <c r="AH52" s="37"/>
+      <c r="AI52" s="37"/>
+      <c r="AJ52" s="37"/>
+      <c r="AK52" s="37"/>
+      <c r="AL52" s="37"/>
+      <c r="AM52" s="37"/>
+      <c r="AN52" s="37"/>
+      <c r="AO52" s="37"/>
+      <c r="AP52" s="37"/>
+      <c r="AQ52" s="37"/>
+      <c r="AR52" s="37"/>
+      <c r="AS52" s="37"/>
+      <c r="AT52" s="37"/>
+      <c r="AU52" s="37"/>
+      <c r="AV52" s="37"/>
+      <c r="AW52" s="37"/>
+      <c r="AX52" s="37"/>
+      <c r="AY52" s="37"/>
+      <c r="AZ52" s="37"/>
+      <c r="BA52" s="37"/>
+      <c r="BB52" s="37"/>
+      <c r="BC52" s="37"/>
+      <c r="BD52" s="37"/>
+      <c r="BE52" s="37"/>
+      <c r="BF52" s="37"/>
+      <c r="BG52" s="37"/>
+      <c r="BH52" s="37"/>
+      <c r="BI52" s="37"/>
+      <c r="BJ52" s="37"/>
+      <c r="BK52" s="37"/>
+      <c r="BL52" s="37"/>
+      <c r="BM52" s="37"/>
+      <c r="BN52" s="37"/>
+      <c r="BO52" s="37"/>
+      <c r="BP52" s="37"/>
+      <c r="BQ52" s="37"/>
+      <c r="BR52" s="37"/>
+      <c r="BS52" s="37"/>
+      <c r="BT52" s="37"/>
+      <c r="BU52" s="37"/>
+      <c r="BV52" s="37"/>
+      <c r="BW52" s="37"/>
+      <c r="BX52" s="37"/>
+      <c r="BY52" s="37"/>
+      <c r="BZ52" s="37"/>
+      <c r="CA52" s="37"/>
+      <c r="CB52" s="37"/>
+      <c r="CC52" s="37"/>
+      <c r="CD52" s="37"/>
+      <c r="CE52" s="37"/>
+      <c r="CF52" s="37"/>
+      <c r="CG52" s="37"/>
+      <c r="CH52" s="37"/>
+      <c r="CI52" s="37"/>
+      <c r="CJ52" s="37"/>
+      <c r="CK52" s="37"/>
+      <c r="CL52" s="37"/>
+      <c r="CM52" s="37"/>
+      <c r="CN52" s="37"/>
+      <c r="CO52" s="37"/>
+      <c r="CP52" s="37"/>
+      <c r="CQ52" s="37"/>
+      <c r="CR52" s="37"/>
+      <c r="CS52" s="37"/>
+      <c r="CT52" s="37"/>
+      <c r="CU52" s="37"/>
+      <c r="CV52" s="37"/>
+      <c r="CW52" s="37"/>
+      <c r="CX52" s="37"/>
+      <c r="CY52" s="37"/>
+      <c r="CZ52" s="37"/>
+      <c r="DA52" s="37"/>
+      <c r="DB52" s="37"/>
+      <c r="DC52" s="37"/>
+      <c r="DD52" s="37"/>
+      <c r="DE52" s="37"/>
+      <c r="DF52" s="37"/>
+      <c r="DG52" s="37"/>
+      <c r="DH52" s="37"/>
+      <c r="DI52" s="37"/>
+      <c r="DJ52" s="37"/>
+    </row>
+    <row r="53" spans="1:114" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="29">
+        <v>52</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L53" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="37"/>
+      <c r="AA53" s="37"/>
+      <c r="AB53" s="37"/>
+      <c r="AC53" s="37"/>
+      <c r="AD53" s="37"/>
+      <c r="AE53" s="37"/>
+      <c r="AF53" s="37"/>
+      <c r="AG53" s="37"/>
+      <c r="AH53" s="37"/>
+      <c r="AI53" s="37"/>
+      <c r="AJ53" s="37"/>
+      <c r="AK53" s="37"/>
+      <c r="AL53" s="37"/>
+      <c r="AM53" s="37"/>
+      <c r="AN53" s="37"/>
+      <c r="AO53" s="37"/>
+      <c r="AP53" s="37"/>
+      <c r="AQ53" s="37"/>
+      <c r="AR53" s="37"/>
+      <c r="AS53" s="37"/>
+      <c r="AT53" s="37"/>
+      <c r="AU53" s="37"/>
+      <c r="AV53" s="37"/>
+      <c r="AW53" s="37"/>
+      <c r="AX53" s="37"/>
+      <c r="AY53" s="37"/>
+      <c r="AZ53" s="37"/>
+      <c r="BA53" s="37"/>
+      <c r="BB53" s="37"/>
+      <c r="BC53" s="37"/>
+      <c r="BD53" s="37"/>
+      <c r="BE53" s="37"/>
+      <c r="BF53" s="37"/>
+      <c r="BG53" s="37"/>
+      <c r="BH53" s="37"/>
+      <c r="BI53" s="37"/>
+      <c r="BJ53" s="37"/>
+      <c r="BK53" s="37"/>
+      <c r="BL53" s="37"/>
+      <c r="BM53" s="37"/>
+      <c r="BN53" s="37"/>
+      <c r="BO53" s="37"/>
+      <c r="BP53" s="37"/>
+      <c r="BQ53" s="37"/>
+      <c r="BR53" s="37"/>
+      <c r="BS53" s="37"/>
+      <c r="BT53" s="37"/>
+      <c r="BU53" s="37"/>
+      <c r="BV53" s="37"/>
+      <c r="BW53" s="37"/>
+      <c r="BX53" s="37"/>
+      <c r="BY53" s="37"/>
+      <c r="BZ53" s="37"/>
+      <c r="CA53" s="37"/>
+      <c r="CB53" s="37"/>
+      <c r="CC53" s="37"/>
+      <c r="CD53" s="37"/>
+      <c r="CE53" s="37"/>
+      <c r="CF53" s="37"/>
+      <c r="CG53" s="37"/>
+      <c r="CH53" s="37"/>
+      <c r="CI53" s="37"/>
+      <c r="CJ53" s="37"/>
+      <c r="CK53" s="37"/>
+      <c r="CL53" s="37"/>
+      <c r="CM53" s="37"/>
+      <c r="CN53" s="37"/>
+      <c r="CO53" s="37"/>
+      <c r="CP53" s="37"/>
+      <c r="CQ53" s="37"/>
+      <c r="CR53" s="37"/>
+      <c r="CS53" s="37"/>
+      <c r="CT53" s="37"/>
+      <c r="CU53" s="37"/>
+      <c r="CV53" s="37"/>
+      <c r="CW53" s="37"/>
+      <c r="CX53" s="37"/>
+      <c r="CY53" s="37"/>
+      <c r="CZ53" s="37"/>
+      <c r="DA53" s="37"/>
+      <c r="DB53" s="37"/>
+      <c r="DC53" s="37"/>
+      <c r="DD53" s="37"/>
+      <c r="DE53" s="37"/>
+      <c r="DF53" s="37"/>
+      <c r="DG53" s="37"/>
+      <c r="DH53" s="37"/>
+      <c r="DI53" s="37"/>
+      <c r="DJ53" s="37"/>
+    </row>
+    <row r="54" spans="1:114" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="29">
+        <v>53</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L54" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="M54" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="N54" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="O54" s="29">
+        <v>3</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="37"/>
+      <c r="AA54" s="37"/>
+      <c r="AB54" s="37"/>
+      <c r="AC54" s="37"/>
+      <c r="AD54" s="37"/>
+      <c r="AE54" s="37"/>
+      <c r="AF54" s="37"/>
+      <c r="AG54" s="37"/>
+      <c r="AH54" s="37"/>
+      <c r="AI54" s="37"/>
+      <c r="AJ54" s="37"/>
+      <c r="AK54" s="37"/>
+      <c r="AL54" s="37"/>
+      <c r="AM54" s="37"/>
+      <c r="AN54" s="37"/>
+      <c r="AO54" s="37"/>
+      <c r="AP54" s="37"/>
+      <c r="AQ54" s="37"/>
+      <c r="AR54" s="37"/>
+      <c r="AS54" s="37"/>
+      <c r="AT54" s="37"/>
+      <c r="AU54" s="37"/>
+      <c r="AV54" s="37"/>
+    </row>
+    <row r="55" spans="1:114" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="29">
+        <v>54</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J55" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L55" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="M55" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="N55" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="O55" s="29">
+        <v>3</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="37"/>
+      <c r="AA55" s="37"/>
+      <c r="AB55" s="37"/>
+      <c r="AC55" s="37"/>
+      <c r="AD55" s="37"/>
+      <c r="AE55" s="37"/>
+      <c r="AF55" s="37"/>
+      <c r="AG55" s="37"/>
+      <c r="AH55" s="37"/>
+      <c r="AI55" s="37"/>
+      <c r="AJ55" s="37"/>
+      <c r="AK55" s="37"/>
+      <c r="AL55" s="37"/>
+      <c r="AM55" s="37"/>
+      <c r="AN55" s="37"/>
+      <c r="AO55" s="37"/>
+      <c r="AP55" s="37"/>
+      <c r="AQ55" s="37"/>
+      <c r="AR55" s="37"/>
+      <c r="AS55" s="37"/>
+      <c r="AT55" s="37"/>
+      <c r="AU55" s="37"/>
+      <c r="AV55" s="37"/>
+    </row>
+    <row r="56" spans="1:114" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="29">
+        <v>55</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J56" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L56" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="M56" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="N56" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="O56" s="29">
+        <v>3</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="28"/>
+      <c r="AD56" s="28"/>
+      <c r="AE56" s="28"/>
+      <c r="AF56" s="28"/>
+      <c r="AG56" s="28"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="28"/>
+      <c r="AJ56" s="28"/>
+      <c r="AK56" s="28"/>
+      <c r="AL56" s="28"/>
+      <c r="AM56" s="28"/>
+      <c r="AN56" s="28"/>
+      <c r="AO56" s="28"/>
+      <c r="AP56" s="28"/>
+      <c r="AQ56" s="28"/>
+      <c r="AR56" s="28"/>
+      <c r="AS56" s="28"/>
+      <c r="AT56" s="28"/>
+      <c r="AU56" s="28"/>
+      <c r="AV56" s="28"/>
+    </row>
+    <row r="57" spans="1:114" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="29">
+        <v>56</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J57" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L57" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="M57" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N57" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="O57" s="29">
+        <v>15</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="28"/>
+      <c r="AC57" s="28"/>
+      <c r="AD57" s="28"/>
+      <c r="AE57" s="28"/>
+      <c r="AF57" s="28"/>
+      <c r="AG57" s="28"/>
+      <c r="AH57" s="28"/>
+      <c r="AI57" s="28"/>
+      <c r="AJ57" s="28"/>
+      <c r="AK57" s="28"/>
+      <c r="AL57" s="28"/>
+      <c r="AM57" s="28"/>
+      <c r="AN57" s="28"/>
+      <c r="AO57" s="28"/>
+      <c r="AP57" s="28"/>
+      <c r="AQ57" s="28"/>
+      <c r="AR57" s="28"/>
+      <c r="AS57" s="28"/>
+      <c r="AT57" s="28"/>
+      <c r="AU57" s="28"/>
+      <c r="AV57" s="28"/>
+    </row>
+    <row r="58" spans="1:114" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="29">
+        <v>57</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I58" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L58" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="M58" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N58" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="O58" s="29">
+        <v>15</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q58" s="40"/>
+    </row>
+    <row r="59" spans="1:114" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="30">
+        <v>58</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I59" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L59" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="M59" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="N59" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="O59" s="30">
+        <v>15</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q59" s="42"/>
+    </row>
+    <row r="60" spans="1:114" x14ac:dyDescent="0.3">
+      <c r="H60" s="33"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="43"/>
+    </row>
+    <row r="61" spans="1:114" x14ac:dyDescent="0.3">
+      <c r="H61" s="33"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="43"/>
+    </row>
+    <row r="62" spans="1:114" x14ac:dyDescent="0.3">
+      <c r="H62" s="33"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="43"/>
+    </row>
+    <row r="63" spans="1:114" x14ac:dyDescent="0.3">
+      <c r="H63" s="33"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="43"/>
+    </row>
+    <row r="64" spans="1:114" x14ac:dyDescent="0.3">
+      <c r="H64" s="33"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="44"/>
+    </row>
+    <row r="65" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H65" s="33"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="44"/>
+    </row>
+    <row r="66" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H66" s="33"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="44"/>
+    </row>
+    <row r="67" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H67" s="33"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="44"/>
+    </row>
+    <row r="70" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H70" s="33"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="44"/>
+    </row>
+    <row r="71" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H71" s="33"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="44"/>
+    </row>
+    <row r="72" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H72" s="33"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="44"/>
+    </row>
+    <row r="73" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H73" s="33"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="44"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{E06B74CC-EC2C-4251-9123-C1CDB0A51366}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{D16AAC1E-CDDD-40EB-AA7C-F013BD2FEF84}"/>
+    <hyperlink ref="L3:L59" r:id="rId3" display="https://doi.org/10.5194/egusphere-2022-206" xr:uid="{EDE0FAEC-B815-4E33-A354-7DD0D0B5693C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066931D4-8CBE-44FB-BA8C-8535E47E21C8}">
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:DJ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
